--- a/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\RADP Preparations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <sheet name="Structure_Wise_payment" sheetId="6" r:id="rId6"/>
     <sheet name="DPP_Wise_payment" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="180">
   <si>
     <t>Items</t>
   </si>
@@ -207,188 +202,321 @@
     <t>District Code</t>
   </si>
   <si>
-    <t>BWDB/Netra/HFMLIP/PW-01
-Dampara &amp; Singer Beel(Re-hab)</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-02
-Dampara,Kangsha &amp; Singer Beel(Re-hab)</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-03
-Dampara,Kangsha &amp; Singer Beel(Re-hab)</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-04
-Khaliajuri FCD-2 &amp; FCD-4</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-05
-Ganesh Haor</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-06
-Ganesh Haor</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-07
-Ganesh Haor</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-08
-Dharmapasha Rui Beel</t>
-  </si>
-  <si>
-    <t>Resectioning of Full embankment from 0.000 to 41.771</t>
-  </si>
-  <si>
-    <t>Resectioning of Full embankment from 0.911to 11.600</t>
-  </si>
-  <si>
-    <t>Dhalia Khal</t>
-  </si>
-  <si>
-    <t>Balai khal</t>
-  </si>
-  <si>
-    <t>Anda Khal</t>
-  </si>
-  <si>
-    <t>Dupikhali  Khal part-1</t>
-  </si>
-  <si>
-    <t>Dudhkura Khal</t>
-  </si>
-  <si>
-    <t>kurikunia Khal</t>
-  </si>
-  <si>
-    <t>Dighjan Khal</t>
-  </si>
-  <si>
-    <t>Tutnir Khal</t>
-  </si>
-  <si>
-    <t>Kamalpur Khal</t>
-  </si>
-  <si>
-    <t>Resection of Full embankment in Kangsha River Sheme</t>
-  </si>
-  <si>
-    <t>Resection of Submesible Singer Bill</t>
-  </si>
-  <si>
-    <t>Reinstllation of 5-vent Regulator Dampara</t>
-  </si>
-  <si>
-    <t>Reexcavation of Piyan River from 0.075 to 5.00</t>
-  </si>
-  <si>
-    <t>Reexcavation of Nayori Khal from 0.000 to 7.565</t>
-  </si>
-  <si>
-    <t>Reexcavation of Feni Khal from 0.000 to 1.903</t>
-  </si>
-  <si>
-    <t>Reexcavation of Jhalokhali from 0.000 to 6.76</t>
-  </si>
-  <si>
-    <t>Reexcavation of Putia Khal from 0.000 to 5.235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resectioning of Submersible EMB from 44.600 to 48.650  </t>
-  </si>
-  <si>
-    <t>Const of Submesible Emb from Km 6.800 to 24.855</t>
-  </si>
-  <si>
-    <t>Const of 1-Vent Chapri Regulator</t>
-  </si>
-  <si>
-    <t>Const of 1-Vent Ukra  Regulator</t>
-  </si>
-  <si>
-    <t>Const of 1-Vent Ichamati Regulator</t>
-  </si>
-  <si>
-    <t>Const of 4-Vent Ichamati Regulator</t>
-  </si>
-  <si>
-    <t>Reexcavation of Narsua River from  Km 0.000 to 6.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Ukra Khal from Km 0.111 to 2.043 Km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Chapri Khal from Km 0.280 to 2.590  Km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Ichamati Khal from Km 0.072 to 1.250  Km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Boilara  Khal from Km 8.550  to 8.900  Km </t>
-  </si>
-  <si>
-    <t>Const of BoX  drainage ountlet at Bhadera</t>
-  </si>
-  <si>
-    <t>Const of BoX  drainage ountlet at Moheswar Khal</t>
-  </si>
-  <si>
-    <t>Const of Irrigation Inlet</t>
-  </si>
-  <si>
-    <t>Rehbilation of existing Regulator</t>
-  </si>
-  <si>
-    <t>Reexcavation of Kangsha river</t>
-  </si>
-  <si>
-    <t>Reexcavation of Gumai river</t>
-  </si>
-  <si>
-    <t>Agunia Regulator</t>
-  </si>
-  <si>
-    <t>Dharam Regulator</t>
-  </si>
-  <si>
-    <t>Box-1</t>
-  </si>
-  <si>
-    <t>Box-2</t>
-  </si>
-  <si>
-    <t>Box-3</t>
-  </si>
-  <si>
-    <t>Box-4</t>
-  </si>
-  <si>
-    <t>Box-5</t>
-  </si>
-  <si>
-    <t>Inlet-1</t>
-  </si>
-  <si>
-    <t>Inlet-2</t>
-  </si>
-  <si>
-    <t>Inlet-3</t>
+    <t>BWDB/Sunam/HFMLIP/PW-01 Dhakua Haor (Division-2)</t>
+  </si>
+  <si>
+    <t>BWDB/Sunam/HFMLIP/PW-02 Dhakua Haor (Division-2)</t>
+  </si>
+  <si>
+    <t>BWDB/Sunam/HFMLIP/PW-03 Dhakua Haor (Division-1)</t>
+  </si>
+  <si>
+    <t>BWDB/Sunam/HFMLIP/PW-04 Dharmapasha Rui Beel (Division-1)</t>
+  </si>
+  <si>
+    <t>BWDB/Sunam/HFMLIP/PW-05 Dharmapasha Rui Beel (Division-1)</t>
+  </si>
+  <si>
+    <t>BWDB/Sunam/HFMLIP/PW-06 Dharmapasha Rui Beel (Division-1)</t>
+  </si>
+  <si>
+    <t>Submersible Embankment between km10.600 to 49.426 total 33.849km</t>
+  </si>
+  <si>
+    <t>Re-Excavation of Dariabaz Khal</t>
+  </si>
+  <si>
+    <t>Re-Excavation of Juriganga Khal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-Excavation of Purukania Khal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-Excavation of Muktakhai River </t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-1</t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-2</t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-3</t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-4</t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-5</t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-6</t>
+  </si>
+  <si>
+    <t>Box Drainage Outlet-7</t>
+  </si>
+  <si>
+    <t>Irrigation Inlet</t>
+  </si>
+  <si>
+    <t>Re-excavation of Piyan River from km 19.000 to km 55.575 total 36.575km</t>
+  </si>
+  <si>
+    <t>1 vent (1.50m X 1.80m)-1</t>
+  </si>
+  <si>
+    <t>2 vent (1.50m X 1.80m)-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causeway 4.0m wide-1 </t>
+  </si>
+  <si>
+    <t>Causeway 4.0m wide-2</t>
+  </si>
+  <si>
+    <t>Causeway 4.0m wide-3</t>
+  </si>
+  <si>
+    <t>Causeway 4.0m wide-4</t>
+  </si>
+  <si>
+    <t>Causeway 4.0m wide-5</t>
+  </si>
+  <si>
+    <t>Causeway 6.0m wide-1</t>
+  </si>
+  <si>
+    <t>Construction of Submersible embankment-34.94km</t>
+  </si>
+  <si>
+    <t>Dahar  4vent (1.50m X 1.80m)-1 Regulator</t>
+  </si>
+  <si>
+    <t>Deola 2 vent (1.50m X 1.80m)-1  Regulator</t>
+  </si>
+  <si>
+    <t>Manani Causeway 6.0m wide-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahar Causeway 4.0m wide-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daharagang Causeway 4.0m wide-2</t>
+  </si>
+  <si>
+    <t>Chandrasona Causeway 4.0m wide-3</t>
+  </si>
+  <si>
+    <t>Khurma Khal</t>
+  </si>
+  <si>
+    <t>Udani Khal</t>
+  </si>
+  <si>
+    <t>Deola Khal</t>
+  </si>
+  <si>
+    <t>Shaitan Khal</t>
+  </si>
+  <si>
+    <t>Banni Khal2</t>
+  </si>
+  <si>
+    <t>Rui Beel Khal</t>
+  </si>
+  <si>
+    <t>Dahar Gang</t>
+  </si>
+  <si>
+    <t>Gobra Khal</t>
+  </si>
+  <si>
+    <t>Banni Khal1</t>
+  </si>
+  <si>
+    <t>Dagar Khal</t>
+  </si>
+  <si>
+    <t>Rajpur Khal</t>
+  </si>
+  <si>
+    <t>Kolma Khal</t>
+  </si>
+  <si>
+    <t>Agunia khal</t>
+  </si>
+  <si>
+    <t>Kakura Khal</t>
+  </si>
+  <si>
+    <t>Dharam Beel Khal</t>
+  </si>
+  <si>
+    <t>Bararia Khal</t>
+  </si>
+  <si>
+    <t>Const. of Box Drainage Outlet-1</t>
+  </si>
+  <si>
+    <t>km</t>
   </si>
   <si>
     <t>Km</t>
   </si>
   <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
+    <t>SUNM/PW-01</t>
+  </si>
+  <si>
+    <t>SUNM/PW-02</t>
+  </si>
+  <si>
+    <t>SUNM/PW-03</t>
+  </si>
+  <si>
+    <t>SUNM/PW-04</t>
+  </si>
+  <si>
+    <t>SUNM/PW-05</t>
+  </si>
+  <si>
+    <t>SUNM/PW-06</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>N-14</t>
+  </si>
+  <si>
+    <t>N-12</t>
+  </si>
+  <si>
+    <t>SUNM</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>Package_No</t>
+  </si>
+  <si>
+    <t>KISH/PW-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-03</t>
+  </si>
+  <si>
+    <t>KISH/PW-04</t>
+  </si>
+  <si>
+    <t>KISH/PW-05</t>
+  </si>
+  <si>
+    <t>KISH/PW-06</t>
+  </si>
+  <si>
+    <t>KISH/PW-07</t>
+  </si>
+  <si>
+    <t>KISH/PW-08</t>
+  </si>
+  <si>
+    <t>KISH/PW-09</t>
+  </si>
+  <si>
+    <t>KISH/PW-10</t>
+  </si>
+  <si>
+    <t>KISH/PW-11</t>
+  </si>
+  <si>
+    <t>KISH/PW-12</t>
+  </si>
+  <si>
+    <t>KISH/PW-13</t>
+  </si>
+  <si>
+    <t>KISH/PW-14</t>
+  </si>
+  <si>
+    <t>KISH/PW-15</t>
+  </si>
+  <si>
+    <t>KISH/PW-16</t>
+  </si>
+  <si>
+    <t>KISH/PW-17</t>
+  </si>
+  <si>
+    <t>KISH/PW-18</t>
+  </si>
+  <si>
+    <t>KISH/PW-19</t>
+  </si>
+  <si>
+    <t>KISH/PW-20</t>
+  </si>
+  <si>
+    <t>KISH/PW-21</t>
+  </si>
+  <si>
+    <t>KISH/PW-22</t>
+  </si>
+  <si>
+    <t>KISH/PW-23</t>
+  </si>
+  <si>
+    <t>KISH/PW-24</t>
+  </si>
+  <si>
+    <t>KISH/PW-25</t>
+  </si>
+  <si>
+    <t>KISH/PW-26</t>
+  </si>
+  <si>
+    <t>KISH/PW-27</t>
+  </si>
+  <si>
+    <t>KISH/PW-28</t>
+  </si>
+  <si>
+    <t>KISH/PW-29</t>
+  </si>
+  <si>
+    <t>KISH/PW-30</t>
+  </si>
+  <si>
+    <t>KISH/PW-31</t>
+  </si>
+  <si>
+    <t>KISH/PW-32</t>
+  </si>
+  <si>
+    <t>KISH/PW-33</t>
+  </si>
+  <si>
+    <t>KISH/PW-34</t>
+  </si>
+  <si>
+    <t>KISH/PW-35</t>
+  </si>
+  <si>
+    <t>KISH/PW-36</t>
+  </si>
+  <si>
+    <t>KISH/PW-37</t>
+  </si>
+  <si>
+    <t>KISH/PW-38</t>
+  </si>
+  <si>
     <t>NETR/PW-01</t>
   </si>
   <si>
@@ -413,157 +541,7 @@
     <t>NETR/PW-08</t>
   </si>
   <si>
-    <t>Rehab</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>R-9</t>
-  </si>
-  <si>
-    <t>R-11</t>
-  </si>
-  <si>
-    <t>R-10</t>
-  </si>
-  <si>
-    <t>R-12</t>
-  </si>
-  <si>
-    <t>R-13</t>
-  </si>
-  <si>
-    <t>N-11</t>
-  </si>
-  <si>
-    <t>N-12</t>
-  </si>
-  <si>
-    <t>N-14</t>
-  </si>
-  <si>
-    <t>NETR</t>
-  </si>
-  <si>
-    <t>sl</t>
-  </si>
-  <si>
-    <t>Package_No</t>
-  </si>
-  <si>
-    <t>KISH/PW-01</t>
-  </si>
-  <si>
-    <t>KISH/PW-02</t>
-  </si>
-  <si>
-    <t>KISH/PW-03</t>
-  </si>
-  <si>
-    <t>KISH/PW-04</t>
-  </si>
-  <si>
-    <t>KISH/PW-05</t>
-  </si>
-  <si>
-    <t>KISH/PW-06</t>
-  </si>
-  <si>
-    <t>KISH/PW-07</t>
-  </si>
-  <si>
-    <t>KISH/PW-08</t>
-  </si>
-  <si>
-    <t>KISH/PW-09</t>
-  </si>
-  <si>
-    <t>KISH/PW-10</t>
-  </si>
-  <si>
-    <t>KISH/PW-11</t>
-  </si>
-  <si>
-    <t>KISH/PW-12</t>
-  </si>
-  <si>
-    <t>KISH/PW-13</t>
-  </si>
-  <si>
-    <t>KISH/PW-14</t>
-  </si>
-  <si>
-    <t>KISH/PW-15</t>
-  </si>
-  <si>
-    <t>KISH/PW-16</t>
-  </si>
-  <si>
-    <t>KISH/PW-17</t>
-  </si>
-  <si>
-    <t>KISH/PW-18</t>
-  </si>
-  <si>
-    <t>KISH/PW-19</t>
-  </si>
-  <si>
-    <t>KISH/PW-20</t>
-  </si>
-  <si>
-    <t>KISH/PW-21</t>
-  </si>
-  <si>
-    <t>KISH/PW-22</t>
-  </si>
-  <si>
-    <t>KISH/PW-23</t>
-  </si>
-  <si>
-    <t>KISH/PW-24</t>
-  </si>
-  <si>
-    <t>KISH/PW-25</t>
-  </si>
-  <si>
-    <t>KISH/PW-26</t>
-  </si>
-  <si>
-    <t>KISH/PW-27</t>
-  </si>
-  <si>
-    <t>KISH/PW-28</t>
-  </si>
-  <si>
-    <t>KISH/PW-29</t>
-  </si>
-  <si>
-    <t>KISH/PW-30</t>
-  </si>
-  <si>
-    <t>KISH/PW-31</t>
-  </si>
-  <si>
-    <t>KISH/PW-32</t>
-  </si>
-  <si>
-    <t>KISH/PW-33</t>
-  </si>
-  <si>
-    <t>KISH/PW-34</t>
-  </si>
-  <si>
-    <t>KISH/PW-35</t>
-  </si>
-  <si>
-    <t>KISH/PW-36</t>
-  </si>
-  <si>
-    <t>KISH/PW-37</t>
-  </si>
-  <si>
-    <t>KISH/PW-38</t>
+    <t>SUNM/PW-07</t>
   </si>
   <si>
     <t>VDW_30_06_2020</t>
@@ -587,8 +565,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,29 +618,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -709,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,10 +707,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,7 +741,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -952,14 +916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -996,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1016,7 +980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1036,7 +1000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1056,7 +1020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1076,7 +1040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1096,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,7 +1080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1136,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1156,7 +1120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,7 +1140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1196,7 +1160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1216,7 +1180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1236,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1256,7 +1220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1282,14 +1246,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1338,43 +1302,43 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>35.828000000000003</v>
+        <v>33.849</v>
       </c>
       <c r="F2">
-        <v>1132.4847496803</v>
+        <v>867.33</v>
       </c>
       <c r="G2">
-        <v>0.85</v>
+        <v>0.58</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1382,571 +1346,571 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>1.48</v>
+      </c>
+      <c r="F3">
+        <v>18.82872142</v>
+      </c>
+      <c r="G3">
+        <v>0.84</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="E3">
-        <v>10.69</v>
-      </c>
-      <c r="F3">
-        <v>212.86</v>
-      </c>
-      <c r="G3">
-        <v>0.85</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>118</v>
-      </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>7.37</v>
+        <v>1.438</v>
       </c>
       <c r="F4">
-        <v>68.311339590000003</v>
+        <v>32.02882548</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>5.8959999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="F5">
-        <v>107.2236656</v>
+        <v>41.0489063</v>
       </c>
       <c r="G5">
-        <v>0.23</v>
+        <v>0.84</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6">
-        <v>7.1920000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="F6">
-        <v>215.6843188464791</v>
+        <v>176.4745353</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>114</v>
       </c>
       <c r="E7">
-        <v>3.66</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>106.6825267</v>
+        <v>45.09</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>114</v>
       </c>
       <c r="E8">
-        <v>5.0570000000000004</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>112.01917659999999</v>
+        <v>45.09</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>57.684434760000002</v>
+        <v>45.09</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>114</v>
       </c>
       <c r="E10">
-        <v>1.903</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>48.574001809999999</v>
+        <v>45.09</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>114</v>
       </c>
       <c r="E11">
-        <v>4.32</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>102.82893199999999</v>
+        <v>45.09</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>114</v>
       </c>
       <c r="E12">
-        <v>3.15</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>37.926277570000003</v>
+        <v>45.09</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
       </c>
       <c r="E13">
-        <v>2.98</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>91.955522869999996</v>
+        <v>45.09</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>10.66</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>115</v>
       </c>
-      <c r="E14">
-        <v>20.9</v>
-      </c>
-      <c r="F14">
-        <v>450.21</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>130</v>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15">
-        <v>3.56</v>
+        <v>36.575</v>
       </c>
       <c r="F15">
-        <v>29.21</v>
+        <v>1193.75</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1954,395 +1918,395 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>389.57</v>
+        <v>183.3461227</v>
       </c>
       <c r="G16">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>114</v>
       </c>
       <c r="E17">
-        <v>4.9249999999999998</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>335.3397243</v>
+        <v>308.0018451</v>
       </c>
       <c r="G17">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
         <v>121</v>
       </c>
-      <c r="J17" t="s">
-        <v>126</v>
-      </c>
       <c r="K17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
       </c>
       <c r="E18">
-        <v>7.5650000000000004</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>158.05900270000001</v>
+        <v>182.2859736</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
         <v>121</v>
       </c>
-      <c r="J18" t="s">
-        <v>126</v>
-      </c>
       <c r="K18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>114</v>
       </c>
       <c r="E19">
-        <v>1.903</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>16.063565189999998</v>
+        <v>182.2859736</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" t="s">
         <v>121</v>
       </c>
-      <c r="J19" t="s">
-        <v>126</v>
-      </c>
       <c r="K19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
       </c>
       <c r="E20">
-        <v>6.76</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>282.4936586</v>
+        <v>182.2859736</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" t="s">
         <v>121</v>
       </c>
-      <c r="J20" t="s">
-        <v>126</v>
-      </c>
       <c r="K20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
       </c>
       <c r="E21">
-        <v>5.2350000000000003</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>313.34954199999999</v>
+        <v>182.2859736</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I21" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
         <v>121</v>
       </c>
-      <c r="J21" t="s">
-        <v>126</v>
-      </c>
       <c r="K21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>114</v>
       </c>
       <c r="E22">
-        <v>9.75</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>395.62</v>
+        <v>182.2859736</v>
       </c>
       <c r="G22">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
         <v>121</v>
       </c>
-      <c r="J22" t="s">
-        <v>126</v>
-      </c>
       <c r="K22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>114</v>
       </c>
       <c r="E23">
-        <v>3.0710000000000002</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>57.25</v>
+        <v>279.350738</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="I23" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
         <v>122</v>
       </c>
-      <c r="J23" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>133</v>
-      </c>
       <c r="N23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>34.94</v>
       </c>
       <c r="F24">
-        <v>242.75</v>
+        <v>1564.32</v>
       </c>
       <c r="G24">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2350,28 +2314,28 @@
         <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>286.86</v>
+        <v>283.3851262</v>
       </c>
       <c r="G25">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2380,13 +2344,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2394,28 +2358,28 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>182.66</v>
+        <v>267.8702853</v>
       </c>
       <c r="G26">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2424,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2438,175 +2402,175 @@
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>419.66</v>
+        <v>225.81</v>
       </c>
       <c r="G27">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
         <v>114</v>
       </c>
       <c r="E28">
-        <v>6.226</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>224.4495987</v>
+        <v>301.6651</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H28">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>123</v>
       </c>
-      <c r="J28" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>133</v>
-      </c>
       <c r="N28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
       </c>
       <c r="E29">
-        <v>1.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>118.7745324</v>
+        <v>187.8663</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
         <v>123</v>
       </c>
-      <c r="J29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>133</v>
-      </c>
       <c r="N29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>114</v>
       </c>
       <c r="E30">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>88.151549259999996</v>
+        <v>191.3901</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>123</v>
       </c>
-      <c r="J30" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30">
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>133</v>
-      </c>
       <c r="N30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2614,16 +2578,16 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31">
-        <v>1.1779999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="F31">
-        <v>51.057474249999999</v>
+        <v>36.08886503938125</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2632,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -2644,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2658,28 +2622,28 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32">
-        <v>0.35</v>
+        <v>3.828</v>
       </c>
       <c r="F32">
-        <v>28.037593059999999</v>
+        <v>54.37697793230682</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K32">
         <v>7</v>
@@ -2688,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2702,16 +2666,16 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>1.965</v>
       </c>
       <c r="F33">
-        <v>42.25</v>
+        <v>70.10824522812744</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2720,25 +2684,25 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
         <v>123</v>
       </c>
-      <c r="J33" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>133</v>
-      </c>
       <c r="N33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2746,16 +2710,16 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>13.8</v>
       </c>
       <c r="F34">
-        <v>42.25</v>
+        <v>565.0549031434045</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2764,25 +2728,25 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
         <v>123</v>
       </c>
-      <c r="J34" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>133</v>
-      </c>
       <c r="N34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2790,43 +2754,43 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>2.913</v>
       </c>
       <c r="F35">
-        <v>16.920000000000002</v>
+        <v>36.35074150287377</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>123</v>
       </c>
-      <c r="J35" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>133</v>
-      </c>
       <c r="N35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2834,16 +2798,16 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3.414</v>
       </c>
       <c r="F36">
-        <v>19.43</v>
+        <v>62.73076172567942</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2852,42 +2816,42 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
         <v>123</v>
       </c>
-      <c r="J36" t="s">
-        <v>127</v>
-      </c>
-      <c r="K36">
-        <v>12</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>133</v>
-      </c>
       <c r="N36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>6.832</v>
       </c>
       <c r="F37">
-        <v>654.80263279999997</v>
+        <v>176.7629319520329</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2896,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J37" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K37">
         <v>7</v>
@@ -2908,42 +2872,42 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="N37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>2.893</v>
       </c>
       <c r="F38">
-        <v>238.87413699999999</v>
+        <v>45.67328638331087</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -2952,382 +2916,382 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="N38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2.622</v>
       </c>
       <c r="F39">
-        <v>289.74</v>
+        <v>39.88913822465054</v>
       </c>
       <c r="G39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2.665</v>
       </c>
       <c r="F40">
-        <v>239.88</v>
+        <v>15.51163698289931</v>
       </c>
       <c r="G40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3.595</v>
       </c>
       <c r="F41">
-        <v>62.22</v>
+        <v>37.85621939970198</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2.204</v>
       </c>
       <c r="F42">
-        <v>62.22</v>
+        <v>17.69687965656709</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>7.611</v>
       </c>
       <c r="F43">
-        <v>62.22</v>
+        <v>157.1547044632087</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>1.305</v>
       </c>
       <c r="F44">
-        <v>62.22</v>
+        <v>32.57284644859151</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>1.105</v>
       </c>
       <c r="F45">
-        <v>62.22</v>
+        <v>37.7084013339956</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="F46">
-        <v>12.18</v>
+        <v>14.60007627900376</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>12.18</v>
+        <v>45.13</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3336,42 +3300,42 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J47" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>12.18</v>
+        <v>131.38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3380,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3392,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N48" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3404,25 +3368,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3430,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3444,13 +3408,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3458,13 +3422,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D4">
-        <v>625.92999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>625.9299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3472,13 +3436,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>714.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>714.6900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3486,13 +3450,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3500,13 +3464,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D7">
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3514,13 +3478,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D8">
-        <v>565.07000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>565.0700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3528,13 +3492,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3542,13 +3506,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3556,13 +3520,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3570,13 +3534,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D12">
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3584,13 +3548,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3598,13 +3562,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>647.20000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>647.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3612,13 +3576,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D15">
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3626,13 +3590,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D16">
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3640,13 +3604,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D17">
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3654,13 +3618,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D18">
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3668,13 +3632,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D19">
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3682,13 +3646,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3696,13 +3660,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D21">
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3710,13 +3674,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3724,13 +3688,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D23">
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3738,13 +3702,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D24">
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3752,13 +3716,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D25">
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3766,13 +3730,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D26">
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3780,13 +3744,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D27">
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3794,13 +3758,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3808,13 +3772,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3822,13 +3786,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3836,13 +3800,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3850,13 +3814,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3864,13 +3828,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3878,13 +3842,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3892,13 +3856,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3906,13 +3870,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3920,13 +3884,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3934,13 +3898,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3948,13 +3912,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3962,13 +3926,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D40">
         <v>817.97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3976,13 +3940,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="D41">
         <v>475.85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3990,13 +3954,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D42">
         <v>712.73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4004,13 +3968,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="D43">
         <v>844.17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4018,13 +3982,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D44">
         <v>635.34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4032,13 +3996,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>375.82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4046,13 +4010,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D46">
         <v>567.71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4060,10 +4024,108 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D47">
         <v>134.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48">
+        <v>913.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49">
+        <v>926.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50">
+        <v>511.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <v>1521.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52">
+        <v>1061.82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53">
+        <v>1268.067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4072,14 +4134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -4105,1228 +4167,1228 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>35.828000000000003</v>
+        <v>33.849</v>
       </c>
       <c r="G2">
-        <v>1132.4847496803</v>
+        <v>867.33</v>
       </c>
       <c r="H2">
-        <v>0.85</v>
+        <v>0.58</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>962.61203722825496</v>
+        <v>503.0514</v>
       </c>
       <c r="K2">
-        <v>1132.4847496803</v>
+        <v>867.33</v>
       </c>
       <c r="L2">
-        <v>169.87271245204499</v>
+        <v>364.2786</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3">
-        <v>10.69</v>
+        <v>1.48</v>
       </c>
       <c r="G3">
-        <v>212.86</v>
+        <v>18.82872142</v>
       </c>
       <c r="H3">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>180.93100000000001</v>
+        <v>15.8161259928</v>
       </c>
       <c r="K3">
-        <v>212.86</v>
+        <v>18.82872142</v>
       </c>
       <c r="L3">
-        <v>31.928999999999998</v>
+        <v>3.012595427200001</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4">
-        <v>7.37</v>
+        <v>1.438</v>
       </c>
       <c r="G4">
-        <v>68.311339590000003</v>
+        <v>32.02882548</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>26.9042134032</v>
       </c>
       <c r="K4">
-        <v>68.311339590000003</v>
+        <v>32.02882548</v>
       </c>
       <c r="L4">
-        <v>68.311339590000003</v>
+        <v>5.124612076800002</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>5.8959999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="G5">
-        <v>107.2236656</v>
+        <v>41.0489063</v>
       </c>
       <c r="H5">
-        <v>0.23</v>
+        <v>0.84</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>24.661443087999999</v>
+        <v>34.481081292</v>
       </c>
       <c r="K5">
-        <v>107.2236656</v>
+        <v>41.0489063</v>
       </c>
       <c r="L5">
-        <v>82.562222512000005</v>
+        <v>6.567825008</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6">
-        <v>7.1920000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="G6">
-        <v>215.6843188464791</v>
+        <v>176.4745353</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>215.6843188464791</v>
+        <v>148.238609652</v>
       </c>
       <c r="K6">
-        <v>215.6843188464791</v>
+        <v>176.4745353</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>28.23592564800001</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>114</v>
       </c>
       <c r="F7">
-        <v>3.66</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>106.6825267</v>
+        <v>45.09</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>106.6825267</v>
+        <v>24.3486</v>
       </c>
       <c r="K7">
-        <v>106.6825267</v>
+        <v>45.09</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>20.7414</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>114</v>
       </c>
       <c r="F8">
-        <v>5.0570000000000004</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>112.01917659999999</v>
+        <v>45.09</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>112.01917659999999</v>
+        <v>24.3486</v>
       </c>
       <c r="K8">
-        <v>112.01917659999999</v>
+        <v>45.09</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>20.7414</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>114</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>57.684434760000002</v>
+        <v>45.09</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>57.684434760000002</v>
+        <v>24.3486</v>
       </c>
       <c r="K9">
-        <v>57.684434760000002</v>
+        <v>45.09</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>20.7414</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>114</v>
       </c>
       <c r="F10">
-        <v>1.903</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>48.574001809999999</v>
+        <v>45.09</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>48.574001809999999</v>
+        <v>24.3486</v>
       </c>
       <c r="K10">
-        <v>48.574001809999999</v>
+        <v>45.09</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>20.7414</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>114</v>
       </c>
       <c r="F11">
-        <v>4.32</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>102.82893199999999</v>
+        <v>45.09</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>51.414465999999997</v>
+        <v>24.3486</v>
       </c>
       <c r="K11">
-        <v>102.82893199999999</v>
+        <v>45.09</v>
       </c>
       <c r="L11">
-        <v>51.414465999999997</v>
+        <v>20.7414</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>114</v>
       </c>
       <c r="F12">
-        <v>3.15</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>37.926277570000003</v>
+        <v>45.09</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>24.3486</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>45.09</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>20.7414</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>114</v>
       </c>
       <c r="F13">
-        <v>2.98</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>91.955522869999996</v>
+        <v>45.09</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>36.782209148</v>
+        <v>24.3486</v>
       </c>
       <c r="K13">
-        <v>91.955522869999996</v>
+        <v>45.09</v>
       </c>
       <c r="L13">
-        <v>55.173313722000003</v>
+        <v>20.7414</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14">
-        <v>20.9</v>
-      </c>
       <c r="G14">
-        <v>450.21</v>
+        <v>10.66</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>450.21</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>450.21</v>
+        <v>10.66</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15">
-        <v>3.56</v>
+        <v>36.575</v>
       </c>
       <c r="G15">
-        <v>29.21</v>
+        <v>1193.75</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>29.21</v>
+        <v>955</v>
       </c>
       <c r="K15">
-        <v>29.21</v>
+        <v>1193.75</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>238.75</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>389.57</v>
+        <v>183.3461227</v>
       </c>
       <c r="H16">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>370.0915</v>
+        <v>110.00767362</v>
       </c>
       <c r="K16">
-        <v>389.57</v>
+        <v>183.3461227</v>
       </c>
       <c r="L16">
-        <v>19.4785</v>
+        <v>73.33844908</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>114</v>
       </c>
       <c r="F17">
-        <v>4.9249999999999998</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>335.3397243</v>
+        <v>308.0018451</v>
       </c>
       <c r="H17">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>261.56498495400001</v>
+        <v>184.80110706</v>
       </c>
       <c r="K17">
-        <v>335.3397243</v>
+        <v>308.0018451</v>
       </c>
       <c r="L17">
-        <v>73.77473934599999</v>
+        <v>123.20073804</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>114</v>
       </c>
       <c r="F18">
-        <v>7.5650000000000004</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>158.05900270000001</v>
+        <v>182.2859736</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="J18">
-        <v>158.05900270000001</v>
+        <v>49.217212872</v>
       </c>
       <c r="K18">
-        <v>158.05900270000001</v>
+        <v>122.131602312</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>72.91438944000001</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>114</v>
       </c>
       <c r="F19">
-        <v>1.903</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>16.063565189999998</v>
+        <v>182.2859736</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>49.217212872</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>122.131602312</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>72.91438944000001</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>114</v>
       </c>
       <c r="F20">
-        <v>6.76</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>282.4936586</v>
+        <v>182.2859736</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="J20">
-        <v>282.4936586</v>
+        <v>49.217212872</v>
       </c>
       <c r="K20">
-        <v>282.4936586</v>
+        <v>122.131602312</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>72.91438944000001</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>114</v>
       </c>
       <c r="F21">
-        <v>5.2350000000000003</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>313.34954199999999</v>
+        <v>182.2859736</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="J21">
-        <v>313.34954199999999</v>
+        <v>49.217212872</v>
       </c>
       <c r="K21">
-        <v>313.34954199999999</v>
+        <v>122.131602312</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>72.91438944000001</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>114</v>
       </c>
       <c r="F22">
-        <v>9.75</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>395.62</v>
+        <v>182.2859736</v>
       </c>
       <c r="H22">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="J22">
-        <v>324.40839999999997</v>
+        <v>49.217212872</v>
       </c>
       <c r="K22">
-        <v>395.62</v>
+        <v>122.131602312</v>
       </c>
       <c r="L22">
-        <v>71.211600000000033</v>
+        <v>72.91438944000001</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>114</v>
       </c>
       <c r="F23">
-        <v>3.0710000000000002</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>57.25</v>
+        <v>279.350738</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>75.42469926</v>
       </c>
       <c r="K23">
-        <v>57.25</v>
+        <v>187.16499446</v>
       </c>
       <c r="L23">
-        <v>57.25</v>
+        <v>111.7402952</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>34.94</v>
       </c>
       <c r="G24">
-        <v>242.75</v>
+        <v>1564.32</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>145.65</v>
+        <v>1533.0336</v>
       </c>
       <c r="K24">
-        <v>242.75</v>
+        <v>1564.32</v>
       </c>
       <c r="L24">
-        <v>97.1</v>
+        <v>31.28639999999996</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>286.86</v>
+        <v>283.3851262</v>
       </c>
       <c r="H25">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>243.83099999999999</v>
+        <v>141.6925631</v>
       </c>
       <c r="K25">
-        <v>286.86</v>
+        <v>283.3851262</v>
       </c>
       <c r="L25">
-        <v>43.029000000000003</v>
+        <v>141.6925631</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>182.66</v>
+        <v>267.8702853</v>
       </c>
       <c r="H26">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>155.261</v>
+        <v>107.14811412</v>
       </c>
       <c r="K26">
-        <v>182.66</v>
+        <v>267.8702853</v>
       </c>
       <c r="L26">
-        <v>27.399000000000001</v>
+        <v>160.72217118</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>419.66</v>
+        <v>225.81</v>
       </c>
       <c r="H27">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>251.79599999999999</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>419.66</v>
+        <v>225.81</v>
       </c>
       <c r="L27">
-        <v>167.864</v>
+        <v>225.81</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
         <v>114</v>
       </c>
       <c r="F28">
-        <v>6.226</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>224.4495987</v>
+        <v>301.6651</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I28">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>224.4495987</v>
+        <v>120.66604</v>
       </c>
       <c r="K28">
-        <v>246.89455856999999</v>
+        <v>301.6651</v>
       </c>
       <c r="L28">
-        <v>22.444959870000019</v>
+        <v>180.99906</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>114</v>
       </c>
       <c r="F29">
-        <v>1.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>118.7745324</v>
+        <v>187.8663</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>118.7745324</v>
+        <v>150.29304</v>
       </c>
       <c r="K29">
-        <v>118.7745324</v>
+        <v>187.8663</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>37.57326</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
         <v>114</v>
       </c>
       <c r="F30">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>88.151549259999996</v>
+        <v>191.3901</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>88.151549259999996</v>
+        <v>153.11208</v>
       </c>
       <c r="K30">
-        <v>88.151549259999996</v>
+        <v>191.3901</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>38.27802</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F31">
-        <v>1.1779999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="G31">
-        <v>51.057474249999999</v>
+        <v>36.08886503938125</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5335,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>51.057474249999999</v>
+        <v>36.08886503938125</v>
       </c>
       <c r="K31">
-        <v>51.057474249999999</v>
+        <v>36.08886503938125</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5347,39 +5409,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32">
-        <v>0.35</v>
+        <v>3.828</v>
       </c>
       <c r="G32">
-        <v>28.037593059999999</v>
+        <v>54.37697793230682</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>54.37697793230682</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>54.37697793230682</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5388,27 +5450,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>1.965</v>
       </c>
       <c r="G33">
-        <v>42.25</v>
+        <v>70.10824522812744</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -5417,10 +5479,10 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>42.25</v>
+        <v>70.10824522812744</v>
       </c>
       <c r="K33">
-        <v>42.25</v>
+        <v>70.10824522812744</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5429,27 +5491,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>13.8</v>
       </c>
       <c r="G34">
-        <v>42.25</v>
+        <v>565.0549031434045</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -5458,10 +5520,10 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>42.25</v>
+        <v>565.0549031434045</v>
       </c>
       <c r="K34">
-        <v>42.25</v>
+        <v>565.0549031434045</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5470,39 +5532,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>2.913</v>
       </c>
       <c r="G35">
-        <v>16.920000000000002</v>
+        <v>36.35074150287377</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>36.35074150287377</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>36.35074150287377</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5511,27 +5573,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3.414</v>
       </c>
       <c r="G36">
-        <v>19.43</v>
+        <v>62.73076172567942</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -5540,10 +5602,10 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>19.43</v>
+        <v>62.73076172567942</v>
       </c>
       <c r="K36">
-        <v>19.43</v>
+        <v>62.73076172567942</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5552,27 +5614,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C37">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>6.832</v>
       </c>
       <c r="G37">
-        <v>654.80263279999997</v>
+        <v>176.7629319520329</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -5581,10 +5643,10 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>654.80263279999997</v>
+        <v>176.7629319520329</v>
       </c>
       <c r="K37">
-        <v>654.80263279999997</v>
+        <v>176.7629319520329</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5593,396 +5655,396 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>2.893</v>
       </c>
       <c r="G38">
-        <v>238.87413699999999</v>
+        <v>45.67328638331087</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>238.87413699999999</v>
+        <v>45.67328638331087</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>45.67328638331087</v>
       </c>
       <c r="L38">
-        <v>-238.87413699999999</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2.622</v>
       </c>
       <c r="G39">
-        <v>289.74</v>
+        <v>39.88913822465054</v>
       </c>
       <c r="H39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>173.84399999999999</v>
+        <v>39.88913822465054</v>
       </c>
       <c r="K39">
-        <v>289.74</v>
+        <v>39.88913822465054</v>
       </c>
       <c r="L39">
-        <v>115.896</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2.665</v>
       </c>
       <c r="G40">
-        <v>239.88</v>
+        <v>15.51163698289931</v>
       </c>
       <c r="H40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>59.97</v>
+        <v>15.51163698289931</v>
       </c>
       <c r="K40">
-        <v>239.88</v>
+        <v>15.51163698289931</v>
       </c>
       <c r="L40">
-        <v>179.91</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3.595</v>
       </c>
       <c r="G41">
-        <v>62.22</v>
+        <v>37.85621939970198</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>37.85621939970198</v>
       </c>
       <c r="K41">
-        <v>62.22</v>
+        <v>37.85621939970198</v>
       </c>
       <c r="L41">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2.204</v>
       </c>
       <c r="G42">
-        <v>62.22</v>
+        <v>17.69687965656709</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>17.69687965656709</v>
       </c>
       <c r="K42">
-        <v>62.22</v>
+        <v>17.69687965656709</v>
       </c>
       <c r="L42">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>7.611</v>
       </c>
       <c r="G43">
-        <v>62.22</v>
+        <v>157.1547044632087</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>157.1547044632087</v>
       </c>
       <c r="K43">
-        <v>62.22</v>
+        <v>157.1547044632087</v>
       </c>
       <c r="L43">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>1.305</v>
       </c>
       <c r="G44">
-        <v>62.22</v>
+        <v>32.57284644859151</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>32.57284644859151</v>
       </c>
       <c r="K44">
-        <v>62.22</v>
+        <v>32.57284644859151</v>
       </c>
       <c r="L44">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>1.105</v>
       </c>
       <c r="G45">
-        <v>62.22</v>
+        <v>37.7084013339956</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>37.7084013339956</v>
       </c>
       <c r="K45">
-        <v>62.22</v>
+        <v>37.7084013339956</v>
       </c>
       <c r="L45">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="G46">
-        <v>12.18</v>
+        <v>14.60007627900376</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>14.60007627900376</v>
       </c>
       <c r="K46">
-        <v>12.18</v>
+        <v>14.60007627900376</v>
       </c>
       <c r="L46">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>12.18</v>
+        <v>45.13</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5994,36 +6056,36 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>12.18</v>
+        <v>45.13</v>
       </c>
       <c r="L47">
-        <v>12.18</v>
+        <v>45.13</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>12.18</v>
+        <v>131.38</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -6035,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>12.18</v>
+        <v>131.38</v>
       </c>
       <c r="L48">
-        <v>12.18</v>
+        <v>131.38</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -6050,36 +6112,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6094,12 +6156,12 @@
         <v>-51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6114,12 +6176,12 @@
         <v>-347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6128,18 +6190,18 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>625.92999999999995</v>
+        <v>625.9299999999999</v>
       </c>
       <c r="F4">
-        <v>-625.92999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-625.9299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6148,18 +6210,18 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>714.69</v>
+        <v>714.6900000000001</v>
       </c>
       <c r="F5">
-        <v>-714.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-714.6900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6174,12 +6236,12 @@
         <v>-575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6194,12 +6256,12 @@
         <v>-837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6208,18 +6270,18 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>565.07000000000005</v>
+        <v>565.0700000000001</v>
       </c>
       <c r="F8">
-        <v>-565.07000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-565.0700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6234,12 +6296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6254,12 +6316,12 @@
         <v>-712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6274,12 +6336,12 @@
         <v>-409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6294,12 +6356,12 @@
         <v>-522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6314,12 +6376,12 @@
         <v>-705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6328,18 +6390,18 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>647.20000000000005</v>
+        <v>647.2</v>
       </c>
       <c r="F14">
-        <v>-647.20000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-647.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6354,12 +6416,12 @@
         <v>-806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6374,12 +6436,12 @@
         <v>-333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6394,12 +6456,12 @@
         <v>-721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6414,12 +6476,12 @@
         <v>-1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6434,12 +6496,12 @@
         <v>-711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6454,12 +6516,12 @@
         <v>-331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6474,12 +6536,12 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6494,12 +6556,12 @@
         <v>-268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6514,12 +6576,12 @@
         <v>-281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6534,12 +6596,12 @@
         <v>-720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6554,12 +6616,12 @@
         <v>-890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6574,12 +6636,12 @@
         <v>-749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6594,12 +6656,12 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6614,12 +6676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6634,12 +6696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6654,12 +6716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -6674,12 +6736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -6694,12 +6756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -6714,12 +6776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -6734,12 +6796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -6754,12 +6816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -6774,12 +6836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -6794,12 +6856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6814,12 +6876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6834,164 +6896,304 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="C40">
-        <v>1143.5430372282549</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1345.3447496803001</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>817.97</v>
       </c>
       <c r="F40">
-        <v>527.37474968030006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-817.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C41">
-        <v>653.50257695247899</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>910.96391877647909</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>475.85</v>
       </c>
       <c r="F41">
-        <v>435.11391877647912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-475.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="C42">
-        <v>849.51149999999996</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>868.99</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>712.73</v>
       </c>
       <c r="F42">
-        <v>156.26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-712.73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C43">
-        <v>1339.8755882539999</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1484.8619275999999</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>844.17</v>
       </c>
       <c r="F43">
-        <v>640.69192759999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-844.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C44">
-        <v>796.53800000000001</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1189.18</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>635.34</v>
       </c>
       <c r="F44">
-        <v>553.84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-635.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C45">
-        <v>586.36315460999992</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>608.80811447999997</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>375.82</v>
       </c>
       <c r="F45">
-        <v>232.98811448000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-375.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C46">
-        <v>893.67676979999999</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>654.80263279999997</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>567.71</v>
       </c>
       <c r="F46">
-        <v>87.092632799999933</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-567.71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C47">
-        <v>233.81399999999999</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>877.26</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>134.16</v>
       </c>
       <c r="F47">
-        <v>743.1</v>
+        <v>-134.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48">
+        <v>898.9316303400002</v>
+      </c>
+      <c r="D48">
+        <v>1462.000988499999</v>
+      </c>
+      <c r="E48">
+        <v>913.55</v>
+      </c>
+      <c r="F48">
+        <v>548.4509884999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49">
+        <v>955</v>
+      </c>
+      <c r="D49">
+        <v>1193.75</v>
+      </c>
+      <c r="E49">
+        <v>926.3</v>
+      </c>
+      <c r="F49">
+        <v>267.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50">
+        <v>616.3195443000001</v>
+      </c>
+      <c r="D50">
+        <v>1289.17097382</v>
+      </c>
+      <c r="E50">
+        <v>511.73</v>
+      </c>
+      <c r="F50">
+        <v>777.4409738200002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51">
+        <v>1533.0336</v>
+      </c>
+      <c r="D51">
+        <v>1564.32</v>
+      </c>
+      <c r="E51">
+        <v>1521.41</v>
+      </c>
+      <c r="F51">
+        <v>42.90999999999985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52">
+        <v>672.9118372200001</v>
+      </c>
+      <c r="D52">
+        <v>1457.9869115</v>
+      </c>
+      <c r="E52">
+        <v>1061.82</v>
+      </c>
+      <c r="F52">
+        <v>396.1669115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53">
+        <v>1400.136615695736</v>
+      </c>
+      <c r="D53">
+        <v>1576.646615695736</v>
+      </c>
+      <c r="E53">
+        <v>1268.067</v>
+      </c>
+      <c r="F53">
+        <v>308.5796156957358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7000,14 +7202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7018,19 +7220,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7047,16 +7249,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.54</v>
+        <v>142.04</v>
       </c>
       <c r="G2">
         <v>291.81</v>
       </c>
       <c r="H2">
-        <v>-255.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-149.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7070,19 +7272,19 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>370.0915</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>389.57</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>389.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7096,19 +7298,19 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>1030.3520000000001</v>
+        <v>543.6494579</v>
       </c>
       <c r="F4">
-        <v>1661.55</v>
+        <v>1042.6033793</v>
       </c>
       <c r="G4">
         <v>6503.97</v>
       </c>
       <c r="H4">
-        <v>-4842.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-5461.366620700001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7122,19 +7324,19 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>84.5</v>
+        <v>170.4402</v>
       </c>
       <c r="F5">
-        <v>395.6</v>
+        <v>360.76</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>395.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>360.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7148,19 +7350,19 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>745.58192362</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1704.55450602</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1704.55450602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7186,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7200,19 +7402,19 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <v>1376.1099244100001</v>
+        <v>2580.576646035735</v>
       </c>
       <c r="F8">
-        <v>1159.6807472800001</v>
+        <v>2862.267604195735</v>
       </c>
       <c r="G8">
         <v>2546.54</v>
       </c>
       <c r="H8">
-        <v>-1386.8592527200001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315.7276041957352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7226,19 +7428,19 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>1668.969765206479</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2000.205846376479</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>51.09</v>
       </c>
       <c r="H9">
-        <v>1949.1158463764791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-51.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7252,19 +7454,19 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>1593.7530372282549</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1795.5547496802999</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1795.5547496802999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7278,19 +7480,19 @@
         <v>41</v>
       </c>
       <c r="E11">
-        <v>353.61840000000001</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>482.08</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>482.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7304,19 +7506,19 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2036.085</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2431.65</v>
       </c>
       <c r="G12">
         <v>5833.04</v>
       </c>
       <c r="H12">
-        <v>-5833.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-3401.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7330,19 +7532,19 @@
         <v>43</v>
       </c>
       <c r="E13">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7368,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7394,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7426,295 +7628,268 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36.54</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>36.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>142.04</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>142.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2">
-        <v>370.0915</v>
-      </c>
-      <c r="D3" s="2">
-        <v>389.57</v>
-      </c>
-      <c r="E3" s="2">
-        <v>310.37</v>
-      </c>
-      <c r="F3" s="2">
-        <v>79.199999999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2">
-        <v>1114.8520000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2057.15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>814.57</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1242.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1459.67158152</v>
+      </c>
+      <c r="D4">
+        <v>3107.91788532</v>
+      </c>
+      <c r="E4">
+        <v>1769.37</v>
+      </c>
+      <c r="F4">
+        <v>1338.54788532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2">
-        <v>1376.1099244100001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1159.6807472800001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>886.28</v>
-      </c>
-      <c r="F5" s="2">
-        <v>273.40074727999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2580.576646035735</v>
+      </c>
+      <c r="D5">
+        <v>2862.267604195735</v>
+      </c>
+      <c r="E5">
+        <v>2317</v>
+      </c>
+      <c r="F5">
+        <v>545.2676041957352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2">
-        <v>1668.969765206479</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2000.205846376479</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1101.76</v>
-      </c>
-      <c r="F6" s="2">
-        <v>898.44584637647927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
-        <v>1593.7530372282549</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1795.5547496802999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1438.59</v>
-      </c>
-      <c r="F7" s="2">
-        <v>356.9647496803002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2">
-        <v>353.61840000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>482.08</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>482.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2036.085</v>
+      </c>
+      <c r="D9">
+        <v>2431.65</v>
+      </c>
+      <c r="E9">
+        <v>2117.11</v>
+      </c>
+      <c r="F9">
+        <v>314.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2">
-        <v>19.43</v>
-      </c>
-      <c r="D10" s="2">
-        <v>19.43</v>
-      </c>
-      <c r="E10" s="2">
-        <v>12.48</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
-        <f>SUM(C2:C13)</f>
-        <v>6496.8246268447338</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(D2:D13)</f>
-        <v>7940.2113433367795</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>4564.0499999999993</v>
-      </c>
-      <c r="F14" s="2">
-        <f>SUM(F2:F13)</f>
-        <v>3376.1613433367793</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
@@ -22,12 +22,12 @@
     <sheet name="Package_wise_str_value" sheetId="8" r:id="rId8"/>
     <sheet name="Package_wise_str_df" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="468">
   <si>
     <t>Items</t>
   </si>
@@ -1506,13 +1506,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,9 +1826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -29052,6 +29063,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -31830,91 +31844,76 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.90980000000000005</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -31923,51 +31922,30 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.90980000000000005</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.35920000000000002</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.60660000000000003</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -31976,50 +31954,29 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.60660000000000003</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.22559999999999999</v>
       </c>
       <c r="E4">
@@ -32035,47 +31992,26 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.63849999999999996</v>
       </c>
       <c r="E5">
@@ -32091,47 +32027,26 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.24779999999999999</v>
       </c>
       <c r="E6">
@@ -32147,51 +32062,30 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.75219999999999998</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.29420000000000002</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.70579999999999998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -32200,7 +32094,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.70579999999999998</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -32208,46 +32102,25 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.91379999999999995</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -32256,57 +32129,36 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.91379999999999995</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.55549999999999999</v>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.44450000000000001</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -32320,42 +32172,21 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.3009</v>
       </c>
       <c r="E10">
@@ -32371,47 +32202,26 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.69910000000000005</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.32990000000000003</v>
       </c>
       <c r="E11">
@@ -32427,51 +32237,30 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.67010000000000003</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.56989999999999996</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.43009999999999998</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -32480,7 +32269,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.43009999999999998</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -32488,42 +32277,21 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.42480000000000001</v>
       </c>
       <c r="E13">
@@ -32539,47 +32307,26 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.57520000000000004</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.20599999999999999</v>
       </c>
       <c r="E14">
@@ -32595,47 +32342,26 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.21290000000000001</v>
       </c>
       <c r="E15">
@@ -32651,47 +32377,26 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.34379999999999999</v>
       </c>
       <c r="E16">
@@ -32707,51 +32412,30 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0.36109999999999998</v>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.47429999999999994</v>
       </c>
       <c r="E17">
-        <v>0.1132</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -32763,60 +32447,39 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3508</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.3508</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1.0001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.58799999999999997</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="F18">
-        <v>0.58799999999999997</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.41199999999999998</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -32824,46 +32487,25 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -32872,7 +32514,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -32880,49 +32522,28 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.28970000000000001</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0.1454</v>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.71029999999999993</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.56489999999999996</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -32936,42 +32557,21 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>0.51529999999999998</v>
       </c>
       <c r="E21">
@@ -32987,107 +32587,65 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.35470000000000002</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.35470000000000002</v>
-      </c>
-      <c r="M21">
         <v>0.12989999999999999</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.42399999999999999</v>
       </c>
       <c r="E22">
-        <v>0.15279999999999999</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="F22">
-        <v>0.2712</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.24809999999999999</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.32790000000000002</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.32790000000000002</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0.68379999999999996</v>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.73469999999999991</v>
       </c>
       <c r="E23">
-        <v>5.0900000000000001E-2</v>
+        <v>4.24E-2</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -33096,50 +32654,29 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.24E-2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1406</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0.1406</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24">
@@ -33155,60 +32692,39 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0.23</v>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.72060000000000002</v>
       </c>
       <c r="E25">
-        <v>2.3699999999999999E-2</v>
+        <v>0.2122</v>
       </c>
       <c r="F25">
-        <v>0.46689999999999998</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.2122</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -33216,46 +32732,25 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.95369999999999999</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -33264,57 +32759,36 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.95369999999999999</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.34050000000000002</v>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>4.6800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.61270000000000002</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -33328,42 +32802,21 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
         <v>0</v>
       </c>
       <c r="E28">
@@ -33373,7 +32826,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -33382,51 +32835,30 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -33435,47 +32867,26 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.44829999999999998</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30">
@@ -33485,109 +32896,67 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.5181</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.5181</v>
-      </c>
-      <c r="K30">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.73640000000000005</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.2636</v>
       </c>
       <c r="I31">
-        <v>0.73640000000000005</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>0.2636</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.95189999999999997</v>
       </c>
       <c r="E32">
@@ -33600,7 +32969,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -33608,46 +32977,25 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.1338</v>
       </c>
       <c r="E33">
-        <v>0.1338</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -33656,54 +33004,33 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.80859999999999999</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -33712,7 +33039,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -33720,46 +33047,25 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0.60370000000000001</v>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.95830000000000004</v>
       </c>
       <c r="E35">
-        <v>0.35460000000000003</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -33776,46 +33082,25 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.21590000000000001</v>
       </c>
       <c r="E36">
-        <v>0.21590000000000001</v>
+        <v>0.18360000000000001</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -33824,54 +33109,33 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.18360000000000001</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.59319999999999995</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0.59319999999999995</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -33880,7 +33144,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -33888,49 +33152,28 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.29210000000000003</v>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.70789999999999997</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -33944,42 +33187,21 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
         <v>0</v>
       </c>
       <c r="E39">
@@ -33995,54 +33217,33 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0.37809999999999999</v>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.62190000000000001</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -34056,46 +33257,25 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.86E-2</v>
       </c>
       <c r="E41">
-        <v>2.86E-2</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -34104,7 +33284,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.88800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -34112,154 +33292,91 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0.13669999999999999</v>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.25379999999999997</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.1171</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="I42">
-        <v>0.54720000000000002</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.2215</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.2215</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.63660000000000005</v>
       </c>
       <c r="I43">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0.63660000000000005</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1.0001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44">
@@ -34275,47 +33392,26 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45">
@@ -34336,49 +33432,28 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.90469999999999995</v>
       </c>
       <c r="E46">
-        <v>0.21099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.69369999999999998</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -34392,46 +33467,25 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -34440,7 +33494,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -34448,32 +33502,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
+      <c r="K47" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="196">
   <si>
     <t>Items</t>
   </si>
@@ -202,194 +202,358 @@
     <t>District Code</t>
   </si>
   <si>
-    <t>BWDB/Netra/HFMLIP/PW-01
-Dampara &amp; Singer Beel(Re-hab)</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-02
-Dampara,Kangsha &amp; Singer Beel(Re-hab)</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-03
-Dampara,Kangsha &amp; Singer Beel(Re-hab)</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-04
-Khaliajuri FCD-2 &amp; FCD-4</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-05
-Ganesh Haor</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-06
-Ganesh Haor</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-07
-Ganesh Haor</t>
-  </si>
-  <si>
-    <t>BWDB/Netra/HFMLIP/PW-08
-Dharmapasha Rui Beel</t>
+    <t>BWDB/Hobi/HFMLIP/PW-01
+Bashira River</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-02
+Kairdhala</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-04
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-05
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-05
+Mokhar Hao</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-06
+Mokhar Haor</t>
+  </si>
+  <si>
+    <t>BWDB/Hobi/HFMLIP/PW-07
+Mokhar Haor</t>
   </si>
   <si>
     <t>BWDB/Kish/HFMLIP/ PW-28</t>
   </si>
   <si>
-    <t>Resectioning of Full embankment from 0.000 to 41.771</t>
-  </si>
-  <si>
-    <t>Resectioning of Full embankment from 0.911to 11.600</t>
-  </si>
-  <si>
-    <t>Dhalia Khal</t>
-  </si>
-  <si>
-    <t>Balai khal</t>
-  </si>
-  <si>
-    <t>Anda Khal</t>
-  </si>
-  <si>
-    <t>Dupikhali  Khal part-1</t>
-  </si>
-  <si>
-    <t>Dudhkura Khal</t>
-  </si>
-  <si>
-    <t>kurikunia Khal</t>
-  </si>
-  <si>
-    <t>Dighjan Khal</t>
-  </si>
-  <si>
-    <t>Tutnir Khal</t>
-  </si>
-  <si>
-    <t>Kamalpur Khal</t>
-  </si>
-  <si>
-    <t>Resection of Full embankment in Kangsha River Sheme</t>
-  </si>
-  <si>
-    <t>Resection of Submesible Singer Bill</t>
-  </si>
-  <si>
-    <t>Reinstllation of 5-vent Regulator Dampara</t>
-  </si>
-  <si>
-    <t>Reexcavation of Piyan River from 0.075 to 5.00</t>
-  </si>
-  <si>
-    <t>Reexcavation of Nayori Khal from 0.000 to 7.565</t>
-  </si>
-  <si>
-    <t>Reexcavation of Feni Khal from 0.000 to 1.903</t>
-  </si>
-  <si>
-    <t>Reexcavation of Jhalokhali from 0.000 to 6.76</t>
-  </si>
-  <si>
-    <t>Reexcavation of Putia Khal from 0.000 to 5.235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resectioning of Submersible EMB from 44.600 to 48.650  </t>
-  </si>
-  <si>
-    <t>Const of Submesible Emb from Km 6.800 to 24.855</t>
-  </si>
-  <si>
-    <t>Const of 1-Vent Chapri Regulator</t>
-  </si>
-  <si>
-    <t>Const of 1-Vent Ukra  Regulator</t>
-  </si>
-  <si>
-    <t>Const of 1-Vent Ichamati Regulator</t>
-  </si>
-  <si>
-    <t>Const of 4-Vent Ichamati Regulator</t>
-  </si>
-  <si>
-    <t>Reexcavation of Narsua River from  Km 0.000 to 6.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Ukra Khal from Km 0.111 to 2.043 Km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Chapri Khal from Km 0.280 to 2.590  Km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Ichamati Khal from Km 0.072 to 1.250  Km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reexcavation of Boilara  Khal from Km 8.550  to 8.900  Km </t>
-  </si>
-  <si>
-    <t>Const of BoX  drainage ountlet at Bhadera</t>
-  </si>
-  <si>
-    <t>Const of BoX  drainage ountlet at Moheswar Khal</t>
-  </si>
-  <si>
-    <t>Const of Irrigation Inlet</t>
-  </si>
-  <si>
-    <t>Rehbilation of existing Regulator</t>
-  </si>
-  <si>
-    <t>Reexcavation of Kangsha river</t>
-  </si>
-  <si>
-    <t>Reexcavation of Gumai river</t>
-  </si>
-  <si>
-    <t>Agunia Regulator</t>
-  </si>
-  <si>
-    <t>Dharam Regulator</t>
-  </si>
-  <si>
-    <t>Box-1</t>
-  </si>
-  <si>
-    <t>Box-2</t>
-  </si>
-  <si>
-    <t>Box-3</t>
-  </si>
-  <si>
-    <t>Box-4</t>
-  </si>
-  <si>
-    <t>Box-5</t>
-  </si>
-  <si>
-    <t>Inlet-1</t>
-  </si>
-  <si>
-    <t>Inlet-2</t>
-  </si>
-  <si>
-    <t>Inlet-3</t>
+    <t>Resectioning of Embankment along the left bank of the Bashira River  inbwt 2.420 to 9.760</t>
+  </si>
+  <si>
+    <t>construction of new Embankment along the left bank of bitangal khal inbwt 10.000 to 17.000</t>
+  </si>
+  <si>
+    <t>Reexcavation of Bashira River 0.000  to 20.000</t>
+  </si>
+  <si>
+    <t>Reexcavation of Matikatakahl from 0.000 to Km 2.295</t>
+  </si>
+  <si>
+    <t>Reahblitation of Existing 3-vent Regulator</t>
+  </si>
+  <si>
+    <t>Construction of 6.00m Islampur causeway</t>
+  </si>
+  <si>
+    <t>Resctioning of Submersible Embankment from 0.000 to 26.000 at Left Bank of Kushiyara</t>
+  </si>
+  <si>
+    <t>Resctioning of Submersible Embankment from 0.000 to 16.02 at Right Bank of Khoai</t>
+  </si>
+  <si>
+    <t>Construction of New Embankment from Km 22.850 to 31.210</t>
+  </si>
+  <si>
+    <t>Reexcavation of Satmukha Khal from 0.000 to 1.790 km</t>
+  </si>
+  <si>
+    <t>Reexcavation of Singer Beel Khal from 0.000 to 2.720 km</t>
+  </si>
+  <si>
+    <t>Construction of  Dairar Khal Causeway 6-m width Causeway</t>
+  </si>
+  <si>
+    <t>Ikrampur CW-6M</t>
+  </si>
+  <si>
+    <t>Submesible Embankment from 31.600 to 81.740</t>
+  </si>
+  <si>
+    <t>Block road</t>
+  </si>
+  <si>
+    <t>Boranbil khal Regulator (1-vent)</t>
+  </si>
+  <si>
+    <t>Chandakhali khal Regulator(1-vent)</t>
+  </si>
+  <si>
+    <t>Chargaowdair khal Regulator(1-vent)</t>
+  </si>
+  <si>
+    <t>Chhoto Katari khal Regulator(1-vent)</t>
+  </si>
+  <si>
+    <t>Islampur khal Regulator (1-vent)</t>
+  </si>
+  <si>
+    <t>Tetter Drepasionkhal Regulator(2-vent)</t>
+  </si>
+  <si>
+    <t>Soaybeel khal Regulator (5-vent)</t>
+  </si>
+  <si>
+    <t>Bibiyana 6.0m Causeway</t>
+  </si>
+  <si>
+    <t>Old kushiyana 6.0m Causeway</t>
+  </si>
+  <si>
+    <t>Ratna River 4.0m Causeway</t>
+  </si>
+  <si>
+    <t>Rukway 4.0m Causeway</t>
+  </si>
+  <si>
+    <t>BoX1</t>
+  </si>
+  <si>
+    <t>BoX2</t>
+  </si>
+  <si>
+    <t>BoX3</t>
+  </si>
+  <si>
+    <t>BoX4</t>
+  </si>
+  <si>
+    <t>BoX5</t>
+  </si>
+  <si>
+    <t>BoX6</t>
+  </si>
+  <si>
+    <t>BoX7</t>
+  </si>
+  <si>
+    <t>BoX8</t>
+  </si>
+  <si>
+    <t>BoX9</t>
+  </si>
+  <si>
+    <t>Irrigation Inlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chargaowdair khal </t>
+  </si>
+  <si>
+    <t>Chotokatari Khal</t>
+  </si>
+  <si>
+    <t>Salukadhar Khal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islampur khal </t>
+  </si>
+  <si>
+    <t>Soyabeel Khal</t>
+  </si>
+  <si>
+    <t>Chatal Beel Khal</t>
+  </si>
+  <si>
+    <t>Rajendrapur Khal</t>
+  </si>
+  <si>
+    <t>Purohogun Khal</t>
+  </si>
+  <si>
+    <t>Sutki River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratna River </t>
   </si>
   <si>
     <t>WMG Building</t>
   </si>
   <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>nos.</t>
+  </si>
+  <si>
     <t>Km</t>
   </si>
   <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
+    <t>HOBI/PW-01</t>
+  </si>
+  <si>
+    <t>HOBI/PW-02</t>
+  </si>
+  <si>
+    <t>HOBI/PW-04</t>
+  </si>
+  <si>
+    <t>HOBI/PW-05</t>
+  </si>
+  <si>
+    <t>HOBI/PW-06</t>
+  </si>
+  <si>
+    <t>HOBI/PW-07</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-03</t>
+  </si>
+  <si>
+    <t>Rehab</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>R-8</t>
+  </si>
+  <si>
+    <t>R-7</t>
+  </si>
+  <si>
+    <t>N-10</t>
+  </si>
+  <si>
+    <t>HOBI</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>Package_No</t>
+  </si>
+  <si>
+    <t>KISH/PW-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-03</t>
+  </si>
+  <si>
+    <t>KISH/PW-04</t>
+  </si>
+  <si>
+    <t>KISH/PW-05</t>
+  </si>
+  <si>
+    <t>KISH/PW-06</t>
+  </si>
+  <si>
+    <t>KISH/PW-07</t>
+  </si>
+  <si>
+    <t>KISH/PW-08</t>
+  </si>
+  <si>
+    <t>KISH/PW-09</t>
+  </si>
+  <si>
+    <t>KISH/PW-10</t>
+  </si>
+  <si>
+    <t>KISH/PW-11</t>
+  </si>
+  <si>
+    <t>KISH/PW-12</t>
+  </si>
+  <si>
+    <t>KISH/PW-13</t>
+  </si>
+  <si>
+    <t>KISH/PW-14</t>
+  </si>
+  <si>
+    <t>KISH/PW-15</t>
+  </si>
+  <si>
+    <t>KISH/PW-16</t>
+  </si>
+  <si>
+    <t>KISH/PW-17</t>
+  </si>
+  <si>
+    <t>KISH/PW-18</t>
+  </si>
+  <si>
+    <t>KISH/PW-19</t>
+  </si>
+  <si>
+    <t>KISH/PW-20</t>
+  </si>
+  <si>
+    <t>KISH/PW-21</t>
+  </si>
+  <si>
+    <t>KISH/PW-22</t>
+  </si>
+  <si>
+    <t>KISH/PW-23</t>
+  </si>
+  <si>
+    <t>KISH/PW-24</t>
+  </si>
+  <si>
+    <t>KISH/PW-25</t>
+  </si>
+  <si>
+    <t>KISH/PW-26</t>
+  </si>
+  <si>
+    <t>KISH/PW-27</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-01</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-02</t>
+  </si>
+  <si>
+    <t>KISH/PW-28/Lot-04</t>
+  </si>
+  <si>
+    <t>KISH/PW-29</t>
+  </si>
+  <si>
+    <t>KISH/PW-30</t>
+  </si>
+  <si>
+    <t>KISH/PW-31</t>
+  </si>
+  <si>
+    <t>KISH/PW-32</t>
+  </si>
+  <si>
+    <t>KISH/PW-33</t>
+  </si>
+  <si>
+    <t>KISH/PW-34</t>
+  </si>
+  <si>
+    <t>KISH/PW-35</t>
+  </si>
+  <si>
+    <t>KISH/PW-36</t>
+  </si>
+  <si>
+    <t>KISH/PW-37</t>
+  </si>
+  <si>
+    <t>KISH/PW-38</t>
+  </si>
+  <si>
+    <t>HOBI/PW-03</t>
+  </si>
+  <si>
     <t>NETR/PW-01</t>
   </si>
   <si>
@@ -412,189 +576,6 @@
   </si>
   <si>
     <t>NETR/PW-08</t>
-  </si>
-  <si>
-    <t>KISH/PW-28/Lot-02</t>
-  </si>
-  <si>
-    <t>Rehab</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>R-9</t>
-  </si>
-  <si>
-    <t>R-11</t>
-  </si>
-  <si>
-    <t>R-10</t>
-  </si>
-  <si>
-    <t>R-12</t>
-  </si>
-  <si>
-    <t>R-13</t>
-  </si>
-  <si>
-    <t>N-11</t>
-  </si>
-  <si>
-    <t>N-12</t>
-  </si>
-  <si>
-    <t>N-14</t>
-  </si>
-  <si>
-    <t>NETR</t>
-  </si>
-  <si>
-    <t>sl</t>
-  </si>
-  <si>
-    <t>Package_No</t>
-  </si>
-  <si>
-    <t>KISH/PW-01</t>
-  </si>
-  <si>
-    <t>KISH/PW-02</t>
-  </si>
-  <si>
-    <t>KISH/PW-03</t>
-  </si>
-  <si>
-    <t>KISH/PW-04</t>
-  </si>
-  <si>
-    <t>KISH/PW-05</t>
-  </si>
-  <si>
-    <t>KISH/PW-06</t>
-  </si>
-  <si>
-    <t>KISH/PW-07</t>
-  </si>
-  <si>
-    <t>KISH/PW-08</t>
-  </si>
-  <si>
-    <t>KISH/PW-09</t>
-  </si>
-  <si>
-    <t>KISH/PW-10</t>
-  </si>
-  <si>
-    <t>KISH/PW-11</t>
-  </si>
-  <si>
-    <t>KISH/PW-12</t>
-  </si>
-  <si>
-    <t>KISH/PW-13</t>
-  </si>
-  <si>
-    <t>KISH/PW-14</t>
-  </si>
-  <si>
-    <t>KISH/PW-15</t>
-  </si>
-  <si>
-    <t>KISH/PW-16</t>
-  </si>
-  <si>
-    <t>KISH/PW-17</t>
-  </si>
-  <si>
-    <t>KISH/PW-18</t>
-  </si>
-  <si>
-    <t>KISH/PW-19</t>
-  </si>
-  <si>
-    <t>KISH/PW-20</t>
-  </si>
-  <si>
-    <t>KISH/PW-21</t>
-  </si>
-  <si>
-    <t>KISH/PW-22</t>
-  </si>
-  <si>
-    <t>KISH/PW-23</t>
-  </si>
-  <si>
-    <t>KISH/PW-24</t>
-  </si>
-  <si>
-    <t>KISH/PW-25</t>
-  </si>
-  <si>
-    <t>KISH/PW-26</t>
-  </si>
-  <si>
-    <t>KISH/PW-27</t>
-  </si>
-  <si>
-    <t>KISH/PW-28/Lot-01</t>
-  </si>
-  <si>
-    <t>KISH/PW-28/Lot-03</t>
-  </si>
-  <si>
-    <t>KISH/PW-28/Lot-04</t>
-  </si>
-  <si>
-    <t>KISH/PW-29</t>
-  </si>
-  <si>
-    <t>KISH/PW-30</t>
-  </si>
-  <si>
-    <t>KISH/PW-31</t>
-  </si>
-  <si>
-    <t>KISH/PW-32</t>
-  </si>
-  <si>
-    <t>KISH/PW-33</t>
-  </si>
-  <si>
-    <t>KISH/PW-34</t>
-  </si>
-  <si>
-    <t>KISH/PW-35</t>
-  </si>
-  <si>
-    <t>KISH/PW-36</t>
-  </si>
-  <si>
-    <t>KISH/PW-37</t>
-  </si>
-  <si>
-    <t>KISH/PW-38</t>
-  </si>
-  <si>
-    <t>HOBI/PW-01</t>
-  </si>
-  <si>
-    <t>HOBI/PW-02</t>
-  </si>
-  <si>
-    <t>HOBI/PW-03</t>
-  </si>
-  <si>
-    <t>HOBI/PW-04</t>
-  </si>
-  <si>
-    <t>HOBI/PW-05</t>
-  </si>
-  <si>
-    <t>HOBI/PW-06</t>
-  </si>
-  <si>
-    <t>HOBI/PW-07</t>
   </si>
   <si>
     <t>SUNM/PW-01</t>
@@ -1028,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>291.81</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1321,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1376,40 +1357,40 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>35.828</v>
+        <v>9.42</v>
       </c>
       <c r="F2">
-        <v>1263.9</v>
+        <v>237.21</v>
       </c>
       <c r="G2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
         <v>131</v>
-      </c>
-      <c r="N2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1420,40 +1401,40 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>10.69</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>200.45</v>
+        <v>149.29</v>
       </c>
       <c r="G3">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1461,31 +1442,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4">
-        <v>7.37</v>
+        <v>17.4</v>
       </c>
       <c r="F4">
-        <v>68.31133959</v>
+        <v>732.6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1494,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" t="s">
         <v>131</v>
-      </c>
-      <c r="N4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1505,31 +1486,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5">
-        <v>5.896</v>
+        <v>2.925</v>
       </c>
       <c r="F5">
-        <v>107.2236656</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G5">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1538,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" t="s">
         <v>131</v>
-      </c>
-      <c r="N5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1549,43 +1530,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>7.192</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>215.6843188464791</v>
+        <v>69.47</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1593,43 +1574,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
       </c>
       <c r="E7">
-        <v>3.66</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>106.6825267</v>
+        <v>247.53</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1643,13 +1624,13 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8">
-        <v>5.057</v>
+        <v>5.7</v>
       </c>
       <c r="F8">
-        <v>112.0191766</v>
+        <v>287.53</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1658,22 +1639,22 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>129</v>
       </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>133</v>
-      </c>
       <c r="N8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1687,13 +1668,13 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>16.02</v>
       </c>
       <c r="F9">
-        <v>57.68443476</v>
+        <v>377.59</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1702,22 +1683,22 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>129</v>
       </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>133</v>
-      </c>
       <c r="N9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1731,13 +1712,13 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>1.903</v>
+        <v>9.42</v>
       </c>
       <c r="F10">
-        <v>48.57400181</v>
+        <v>304.03</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1746,22 +1727,22 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>129</v>
       </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>133</v>
-      </c>
       <c r="N10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1775,25 +1756,25 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11">
-        <v>4.32</v>
+        <v>1.79</v>
       </c>
       <c r="F11">
-        <v>102.828932</v>
+        <v>53.04748093</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1802,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1819,25 +1800,25 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="F12">
-        <v>37.92627757</v>
+        <v>29.97498828</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -1846,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1866,34 +1847,34 @@
         <v>116</v>
       </c>
       <c r="E13">
-        <v>2.98</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>91.95552287</v>
+        <v>244.2</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>129</v>
       </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>132</v>
-      </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1901,43 +1882,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14">
-        <v>20.9</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>522.9</v>
+        <v>210.95</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>129</v>
       </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>133</v>
-      </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1951,37 +1932,37 @@
         <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15">
-        <v>3.56</v>
+        <v>23.815</v>
       </c>
       <c r="F15">
-        <v>30.07</v>
+        <v>638.85</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1995,37 +1976,37 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>374.43</v>
+        <v>507.95</v>
       </c>
       <c r="G16">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" t="s">
         <v>131</v>
-      </c>
-      <c r="N16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2042,34 +2023,34 @@
         <v>116</v>
       </c>
       <c r="E17">
-        <v>4.925</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>335.3397243</v>
+        <v>141.3235316</v>
       </c>
       <c r="G17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2086,34 +2067,34 @@
         <v>116</v>
       </c>
       <c r="E18">
-        <v>7.565</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>158.0590027</v>
+        <v>154.0745714</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2130,34 +2111,34 @@
         <v>116</v>
       </c>
       <c r="E19">
-        <v>1.903</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>16.06356519</v>
+        <v>151.0703345</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2165,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>86</v>
@@ -2174,34 +2155,34 @@
         <v>116</v>
       </c>
       <c r="E20">
-        <v>6.76</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>282.4936586</v>
+        <v>143.810932</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2209,7 +2190,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -2218,34 +2199,34 @@
         <v>116</v>
       </c>
       <c r="E21">
-        <v>5.235</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>313.349542</v>
+        <v>155.6932718</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2253,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
@@ -2262,34 +2243,34 @@
         <v>116</v>
       </c>
       <c r="E22">
-        <v>9.75</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>395.62</v>
+        <v>216.751472</v>
       </c>
       <c r="G22">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2297,7 +2278,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>89</v>
@@ -2306,34 +2287,34 @@
         <v>116</v>
       </c>
       <c r="E23">
-        <v>3.071</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>57.25</v>
+        <v>353.8204149</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
         <v>130</v>
       </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>136</v>
-      </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2341,43 +2322,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>242.75</v>
+        <v>415.5317</v>
       </c>
       <c r="G24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
         <v>130</v>
       </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>136</v>
-      </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2385,19 +2366,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>286.86</v>
+        <v>373.345883</v>
       </c>
       <c r="G25">
         <v>0.85</v>
@@ -2406,22 +2387,22 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
         <v>130</v>
       </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>136</v>
-      </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2429,43 +2410,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>182.66</v>
+        <v>143.1604</v>
       </c>
       <c r="G26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
         <v>130</v>
       </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>136</v>
-      </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2473,43 +2454,43 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>419.66</v>
+        <v>165.18308</v>
       </c>
       <c r="G27">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
         <v>130</v>
       </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>136</v>
-      </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2526,34 +2507,34 @@
         <v>116</v>
       </c>
       <c r="E28">
-        <v>6.226</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>224.4495987</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>130</v>
       </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>136</v>
-      </c>
       <c r="N28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2570,34 +2551,34 @@
         <v>116</v>
       </c>
       <c r="E29">
-        <v>1.933</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>118.7745324</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
         <v>130</v>
       </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>136</v>
-      </c>
       <c r="N29" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2614,34 +2595,34 @@
         <v>116</v>
       </c>
       <c r="E30">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>88.15154926</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
         <v>130</v>
       </c>
-      <c r="K30">
-        <v>7</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>136</v>
-      </c>
       <c r="N30" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2658,34 +2639,34 @@
         <v>116</v>
       </c>
       <c r="E31">
-        <v>1.178</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>51.05747425</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>130</v>
       </c>
-      <c r="K31">
-        <v>7</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>136</v>
-      </c>
       <c r="N31" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2702,34 +2683,34 @@
         <v>116</v>
       </c>
       <c r="E32">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>28.03759306</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>130</v>
       </c>
-      <c r="K32">
-        <v>7</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>136</v>
-      </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2743,25 +2724,25 @@
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>42.25</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -2770,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2787,25 +2768,25 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>42.25</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -2814,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N34" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2831,37 +2812,37 @@
         <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>16.92</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>130</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>136</v>
-      </c>
       <c r="N35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2875,37 +2856,37 @@
         <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>19.43</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J36" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
         <v>130</v>
       </c>
-      <c r="K36">
-        <v>12</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>136</v>
-      </c>
       <c r="N36" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2913,7 +2894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
@@ -2922,34 +2903,34 @@
         <v>116</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>522.74</v>
+        <v>150.7581208299</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
         <v>130</v>
       </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>137</v>
-      </c>
       <c r="N37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2963,13 +2944,13 @@
         <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38">
-        <v>11.44</v>
+        <v>3.036</v>
       </c>
       <c r="F38">
-        <v>460.9</v>
+        <v>45.42094538</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2978,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -2990,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="N38" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3001,43 +2982,43 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3.264</v>
       </c>
       <c r="F39">
-        <v>289.74</v>
+        <v>61.40801221</v>
       </c>
       <c r="G39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" t="s">
         <v>127</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
         <v>130</v>
       </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>138</v>
-      </c>
       <c r="N39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3045,43 +3026,43 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2.428</v>
       </c>
       <c r="F40">
-        <v>239.88</v>
+        <v>67.66631649999999</v>
       </c>
       <c r="G40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" t="s">
         <v>127</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
         <v>130</v>
       </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>138</v>
-      </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3089,43 +3070,43 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.634</v>
       </c>
       <c r="F41">
-        <v>62.22</v>
+        <v>25.70650352</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" t="s">
         <v>127</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
         <v>130</v>
       </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>138</v>
-      </c>
       <c r="N41" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3133,43 +3114,43 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3.285</v>
       </c>
       <c r="F42">
-        <v>62.22</v>
+        <v>139.5950848</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" t="s">
         <v>127</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
         <v>130</v>
       </c>
-      <c r="K42">
-        <v>4</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>138</v>
-      </c>
       <c r="N42" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3177,43 +3158,43 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>5.2176</v>
       </c>
       <c r="F43">
-        <v>62.22</v>
+        <v>103.1260091</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" t="s">
         <v>127</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
         <v>130</v>
       </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>138</v>
-      </c>
       <c r="N43" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3221,43 +3202,43 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>4.327</v>
       </c>
       <c r="F44">
-        <v>62.22</v>
+        <v>115.1915241</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" t="s">
         <v>127</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
         <v>130</v>
       </c>
-      <c r="K44">
-        <v>4</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44" t="s">
-        <v>138</v>
-      </c>
       <c r="N44" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3265,43 +3246,43 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2.428</v>
       </c>
       <c r="F45">
-        <v>62.22</v>
+        <v>65.54904076</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" t="s">
         <v>127</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
         <v>130</v>
       </c>
-      <c r="K45">
-        <v>4</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
-        <v>138</v>
-      </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3309,43 +3290,43 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F46">
-        <v>12.18</v>
+        <v>145.9770199</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" t="s">
         <v>127</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>130</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>138</v>
-      </c>
       <c r="N46" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3353,43 +3334,43 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>7.51</v>
       </c>
       <c r="F47">
-        <v>12.18</v>
+        <v>137.4972015</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" t="s">
         <v>127</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
         <v>130</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>138</v>
-      </c>
       <c r="N47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3406,78 +3387,34 @@
         <v>118</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>12.18</v>
+        <v>189.48</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="I48" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" t="s">
         <v>127</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
         <v>130</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>138</v>
-      </c>
       <c r="N48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49">
-        <v>7</v>
-      </c>
-      <c r="F49">
-        <v>226.12</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0.4</v>
-      </c>
-      <c r="I49" t="s">
-        <v>128</v>
-      </c>
-      <c r="J49" t="s">
-        <v>130</v>
-      </c>
-      <c r="K49">
-        <v>15</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>138</v>
-      </c>
-      <c r="N49" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3432,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3512,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D2">
         <v>51.09</v>
@@ -3526,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>347.71</v>
@@ -3540,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D4">
         <v>625.9299999999999</v>
@@ -3554,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D5">
         <v>714.6900000000001</v>
@@ -3568,7 +3505,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D6">
         <v>575.15</v>
@@ -3582,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>837.25</v>
@@ -3596,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D8">
         <v>565.0700000000001</v>
@@ -3610,7 +3547,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3624,7 +3561,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10">
         <v>712.33</v>
@@ -3638,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>409.68</v>
@@ -3652,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>522.86</v>
@@ -3666,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <v>705.59</v>
@@ -3680,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14">
         <v>647.2</v>
@@ -3694,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D15">
         <v>806.89</v>
@@ -3708,7 +3645,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D16">
         <v>333.94</v>
@@ -3722,7 +3659,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D17">
         <v>721.62</v>
@@ -3736,7 +3673,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D18">
         <v>1451.95</v>
@@ -3750,7 +3687,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D19">
         <v>711.02</v>
@@ -3764,7 +3701,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D20">
         <v>331.35</v>
@@ -3778,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D21">
         <v>501.12</v>
@@ -3792,7 +3729,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D22">
         <v>268.24</v>
@@ -3806,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D23">
         <v>281.05</v>
@@ -3820,7 +3757,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D24">
         <v>720.33</v>
@@ -3834,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D25">
         <v>890.42</v>
@@ -3848,7 +3785,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D26">
         <v>749.37</v>
@@ -3862,7 +3799,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D27">
         <v>501.12</v>
@@ -3876,7 +3813,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3890,7 +3827,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D29">
         <v>61.6</v>
@@ -3904,7 +3841,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3918,7 +3855,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3932,7 +3869,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D32">
         <v>74.41</v>
@@ -3946,7 +3883,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3960,7 +3897,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3974,7 +3911,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3988,7 +3925,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4002,7 +3939,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4016,7 +3953,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4030,7 +3967,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4044,7 +3981,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4058,7 +3995,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4072,7 +4009,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4086,7 +4023,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D43">
         <v>938.5700000000001</v>
@@ -4100,7 +4037,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>1079.52</v>
@@ -4114,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4128,7 +4065,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D46">
         <v>655.9400000000001</v>
@@ -4142,7 +4079,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <v>307.8</v>
@@ -4156,7 +4093,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D48">
         <v>1094.31</v>
@@ -4170,7 +4107,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <v>667.67</v>
@@ -4184,7 +4121,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="D50">
         <v>817.97</v>
@@ -4198,7 +4135,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D51">
         <v>475.85</v>
@@ -4212,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="D52">
         <v>712.73</v>
@@ -4226,7 +4163,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="D53">
         <v>844.17</v>
@@ -4240,7 +4177,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="D54">
         <v>635.34</v>
@@ -4254,7 +4191,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D55">
         <v>375.82</v>
@@ -4268,7 +4205,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="D56">
         <v>567.71</v>
@@ -4282,7 +4219,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="D57">
         <v>134.16</v>
@@ -4296,7 +4233,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D58">
         <v>913.55</v>
@@ -4310,7 +4247,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D59">
         <v>926.3</v>
@@ -4324,7 +4261,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D60">
         <v>511.73</v>
@@ -4338,7 +4275,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D61">
         <v>1521.41</v>
@@ -4352,7 +4289,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D62">
         <v>1061.82</v>
@@ -4366,7 +4303,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D63">
         <v>1268.067</v>
@@ -4380,7 +4317,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4393,7 +4330,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4425,13 +4362,13 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -4442,37 +4379,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2">
-        <v>35.828</v>
+        <v>9.42</v>
       </c>
       <c r="G2">
-        <v>1263.9</v>
+        <v>237.21</v>
       </c>
       <c r="H2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1074.315</v>
+        <v>237.21</v>
       </c>
       <c r="K2">
-        <v>1263.9</v>
+        <v>237.21</v>
       </c>
       <c r="L2">
-        <v>189.585</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -4483,37 +4420,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3">
-        <v>10.69</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>200.45</v>
+        <v>149.29</v>
       </c>
       <c r="H3">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>170.3825</v>
+        <v>149.29</v>
       </c>
       <c r="K3">
-        <v>200.45</v>
+        <v>149.29</v>
       </c>
       <c r="L3">
-        <v>30.0675</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -4524,37 +4461,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4">
-        <v>7.37</v>
+        <v>17.4</v>
       </c>
       <c r="G4">
-        <v>68.31133959</v>
+        <v>732.6</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>586.08</v>
       </c>
       <c r="K4">
-        <v>68.31133959</v>
+        <v>732.6</v>
       </c>
       <c r="L4">
-        <v>68.31133959</v>
+        <v>146.52</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -4565,37 +4502,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5">
-        <v>5.896</v>
+        <v>2.925</v>
       </c>
       <c r="G5">
-        <v>107.2236656</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H5">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>24.661443088</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K5">
-        <v>107.2236656</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L5">
-        <v>82.56222251200001</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4606,37 +4543,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>116</v>
       </c>
       <c r="F6">
-        <v>7.192</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>215.6843188464791</v>
+        <v>69.47</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>215.6843188464791</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>215.6843188464791</v>
+        <v>69.47</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>69.47</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -4647,37 +4584,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>116</v>
       </c>
       <c r="F7">
-        <v>3.66</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>106.6825267</v>
+        <v>247.53</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>106.6825267</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>106.6825267</v>
+        <v>247.53</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>247.53</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -4688,22 +4625,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8">
-        <v>5.057</v>
+        <v>5.7</v>
       </c>
       <c r="G8">
-        <v>112.0191766</v>
+        <v>287.53</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4712,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>112.0191766</v>
+        <v>287.53</v>
       </c>
       <c r="K8">
-        <v>112.0191766</v>
+        <v>287.53</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4729,22 +4666,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>16.02</v>
       </c>
       <c r="G9">
-        <v>57.68443476</v>
+        <v>377.59</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4753,10 +4690,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>57.68443476</v>
+        <v>377.59</v>
       </c>
       <c r="K9">
-        <v>57.68443476</v>
+        <v>377.59</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4770,22 +4707,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F10">
-        <v>1.903</v>
+        <v>9.42</v>
       </c>
       <c r="G10">
-        <v>48.57400181</v>
+        <v>304.03</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4794,10 +4731,10 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>48.57400181</v>
+        <v>304.03</v>
       </c>
       <c r="K10">
-        <v>48.57400181</v>
+        <v>304.03</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4811,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -4820,28 +4757,28 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>4.32</v>
+        <v>1.79</v>
       </c>
       <c r="G11">
-        <v>102.828932</v>
+        <v>53.04748093</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>51.414466</v>
+        <v>53.04748093</v>
       </c>
       <c r="K11">
-        <v>102.828932</v>
+        <v>53.04748093</v>
       </c>
       <c r="L11">
-        <v>51.414466</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -4852,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -4861,25 +4798,25 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="G12">
-        <v>37.92627757</v>
+        <v>29.97498828</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>29.97498828</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>29.97498828</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4893,10 +4830,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
@@ -4905,25 +4842,25 @@
         <v>116</v>
       </c>
       <c r="F13">
-        <v>2.98</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>91.95552287</v>
+        <v>244.2</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>36.782209148</v>
+        <v>231.99</v>
       </c>
       <c r="K13">
-        <v>91.95552287</v>
+        <v>244.2</v>
       </c>
       <c r="L13">
-        <v>55.173313722</v>
+        <v>12.21000000000001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -4934,37 +4871,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14">
-        <v>20.9</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>522.9</v>
+        <v>210.95</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>522.9</v>
+        <v>21.095</v>
       </c>
       <c r="K14">
-        <v>522.9</v>
+        <v>210.95</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>189.855</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -4975,37 +4912,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F15">
-        <v>3.56</v>
+        <v>23.815</v>
       </c>
       <c r="G15">
-        <v>30.07</v>
+        <v>638.85</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>30.07</v>
+        <v>319.425</v>
       </c>
       <c r="K15">
-        <v>30.07</v>
+        <v>638.85</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>319.425</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -5016,37 +4953,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>374.43</v>
+        <v>507.95</v>
       </c>
       <c r="H16">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>355.7085</v>
+        <v>396.201</v>
       </c>
       <c r="K16">
-        <v>374.43</v>
+        <v>507.95</v>
       </c>
       <c r="L16">
-        <v>18.72149999999999</v>
+        <v>111.749</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -5057,10 +4994,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>83</v>
@@ -5069,25 +5006,25 @@
         <v>116</v>
       </c>
       <c r="F17">
-        <v>4.925</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>335.3397243</v>
+        <v>141.3235316</v>
       </c>
       <c r="H17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J17">
-        <v>261.564984954</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>335.3397243</v>
+        <v>105.9926487</v>
       </c>
       <c r="L17">
-        <v>73.77473934599999</v>
+        <v>105.9926487</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -5098,10 +5035,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>84</v>
@@ -5110,25 +5047,25 @@
         <v>116</v>
       </c>
       <c r="F18">
-        <v>7.565</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>158.0590027</v>
+        <v>154.0745714</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J18">
-        <v>158.0590027</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>158.0590027</v>
+        <v>115.55592855</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>115.55592855</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5139,10 +5076,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
@@ -5151,25 +5088,25 @@
         <v>116</v>
       </c>
       <c r="F19">
-        <v>1.903</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>16.06356519</v>
+        <v>151.0703345</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>45.32110035</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>151.0703345</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>105.74923415</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -5180,10 +5117,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>86</v>
@@ -5192,25 +5129,25 @@
         <v>116</v>
       </c>
       <c r="F20">
-        <v>6.76</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>282.4936586</v>
+        <v>143.810932</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J20">
-        <v>282.4936586</v>
+        <v>14.3810932</v>
       </c>
       <c r="K20">
-        <v>282.4936586</v>
+        <v>100.6676524</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>86.2865592</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5221,10 +5158,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
         <v>87</v>
@@ -5233,25 +5170,25 @@
         <v>116</v>
       </c>
       <c r="F21">
-        <v>5.235</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>313.349542</v>
+        <v>155.6932718</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>313.349542</v>
+        <v>124.55461744</v>
       </c>
       <c r="K21">
-        <v>313.349542</v>
+        <v>155.6932718</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>31.13865435999999</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5262,10 +5199,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
@@ -5274,25 +5211,25 @@
         <v>116</v>
       </c>
       <c r="F22">
-        <v>9.75</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>395.62</v>
+        <v>216.751472</v>
       </c>
       <c r="H22">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J22">
-        <v>324.4084</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>395.62</v>
+        <v>151.7260304</v>
       </c>
       <c r="L22">
-        <v>71.21160000000003</v>
+        <v>151.7260304</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -5303,10 +5240,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
@@ -5315,25 +5252,25 @@
         <v>116</v>
       </c>
       <c r="F23">
-        <v>3.071</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>57.25</v>
+        <v>353.8204149</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>353.8204149</v>
       </c>
       <c r="K23">
-        <v>57.25</v>
+        <v>353.8204149</v>
       </c>
       <c r="L23">
-        <v>57.25</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -5344,37 +5281,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>242.75</v>
+        <v>415.5317</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>145.65</v>
+        <v>415.5317</v>
       </c>
       <c r="K24">
-        <v>242.75</v>
+        <v>415.5317</v>
       </c>
       <c r="L24">
-        <v>97.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -5385,22 +5322,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>286.86</v>
+        <v>373.345883</v>
       </c>
       <c r="H25">
         <v>0.85</v>
@@ -5409,13 +5346,13 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>243.831</v>
+        <v>317.34400055</v>
       </c>
       <c r="K25">
-        <v>286.86</v>
+        <v>373.345883</v>
       </c>
       <c r="L25">
-        <v>43.029</v>
+        <v>56.00188244999998</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5426,37 +5363,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>182.66</v>
+        <v>143.1604</v>
       </c>
       <c r="H26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>155.261</v>
+        <v>143.1604</v>
       </c>
       <c r="K26">
-        <v>182.66</v>
+        <v>143.1604</v>
       </c>
       <c r="L26">
-        <v>27.399</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5467,37 +5404,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>419.66</v>
+        <v>165.18308</v>
       </c>
       <c r="H27">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>251.796</v>
+        <v>140.405618</v>
       </c>
       <c r="K27">
-        <v>419.66</v>
+        <v>165.18308</v>
       </c>
       <c r="L27">
-        <v>167.864</v>
+        <v>24.77746200000001</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5508,10 +5445,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>94</v>
@@ -5520,25 +5457,25 @@
         <v>116</v>
       </c>
       <c r="F28">
-        <v>6.226</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>224.4495987</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>224.4495987</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K28">
-        <v>246.89455857</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L28">
-        <v>22.44495987000002</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5549,10 +5486,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
@@ -5561,25 +5498,25 @@
         <v>116</v>
       </c>
       <c r="F29">
-        <v>1.933</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>118.7745324</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>118.7745324</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K29">
-        <v>118.7745324</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -5590,10 +5527,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -5602,25 +5539,25 @@
         <v>116</v>
       </c>
       <c r="F30">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>88.15154926</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>88.15154926</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K30">
-        <v>88.15154926</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5631,10 +5568,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>97</v>
@@ -5643,25 +5580,25 @@
         <v>116</v>
       </c>
       <c r="F31">
-        <v>1.178</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>51.05747425</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>51.05747425</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K31">
-        <v>51.05747425</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5672,10 +5609,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -5684,25 +5621,25 @@
         <v>116</v>
       </c>
       <c r="F32">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>28.03759306</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5713,7 +5650,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5722,28 +5659,28 @@
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.25</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>42.25</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K33">
-        <v>42.25</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5754,7 +5691,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5763,28 +5700,28 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.25</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>42.25</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K34">
-        <v>42.25</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5795,37 +5732,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>16.92</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>31.52079012266251</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>5.562492374587503</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -5836,34 +5773,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>19.43</v>
+        <v>37.08328249725001</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J36">
-        <v>19.43</v>
+        <v>14.83331299890001</v>
       </c>
       <c r="K36">
-        <v>19.43</v>
+        <v>14.83331299890001</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5877,10 +5814,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>103</v>
@@ -5889,25 +5826,25 @@
         <v>116</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37">
-        <v>522.74</v>
+        <v>150.7581208299</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>522.74</v>
+        <v>82.916966456445</v>
       </c>
       <c r="K37">
-        <v>522.74</v>
+        <v>150.7581208299</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>67.84115437345498</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -5918,7 +5855,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -5927,13 +5864,13 @@
         <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38">
-        <v>11.44</v>
+        <v>3.036</v>
       </c>
       <c r="G38">
-        <v>460.9</v>
+        <v>45.42094538</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -5942,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>460.9</v>
+        <v>45.42094538</v>
       </c>
       <c r="K38">
-        <v>460.9</v>
+        <v>45.42094538</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5959,37 +5896,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3.264</v>
       </c>
       <c r="G39">
-        <v>289.74</v>
+        <v>61.40801221</v>
       </c>
       <c r="H39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>173.844</v>
+        <v>61.40801221</v>
       </c>
       <c r="K39">
-        <v>289.74</v>
+        <v>61.40801221</v>
       </c>
       <c r="L39">
-        <v>115.896</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -6000,37 +5937,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2.428</v>
       </c>
       <c r="G40">
-        <v>239.88</v>
+        <v>67.66631649999999</v>
       </c>
       <c r="H40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>59.97</v>
+        <v>67.66631649999999</v>
       </c>
       <c r="K40">
-        <v>239.88</v>
+        <v>67.66631649999999</v>
       </c>
       <c r="L40">
-        <v>179.91</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -6041,37 +5978,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.634</v>
       </c>
       <c r="G41">
-        <v>62.22</v>
+        <v>25.70650352</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -6082,37 +6019,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
         <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>3.285</v>
       </c>
       <c r="G42">
-        <v>62.22</v>
+        <v>139.5950848</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>139.5950848</v>
       </c>
       <c r="K42">
-        <v>62.22</v>
+        <v>139.5950848</v>
       </c>
       <c r="L42">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -6123,37 +6060,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>5.2176</v>
       </c>
       <c r="G43">
-        <v>62.22</v>
+        <v>103.1260091</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -6164,37 +6101,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>4.327</v>
       </c>
       <c r="G44">
-        <v>62.22</v>
+        <v>115.1915241</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>51.836185845</v>
       </c>
       <c r="K44">
-        <v>62.22</v>
+        <v>115.1915241</v>
       </c>
       <c r="L44">
-        <v>62.22</v>
+        <v>63.355338255</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6205,37 +6142,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2.428</v>
       </c>
       <c r="G45">
-        <v>62.22</v>
+        <v>65.54904076</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>65.54904076</v>
       </c>
       <c r="K45">
-        <v>62.22</v>
+        <v>65.54904076</v>
       </c>
       <c r="L45">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6246,37 +6183,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G46">
-        <v>12.18</v>
+        <v>145.9770199</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>83.20690134299998</v>
       </c>
       <c r="K46">
-        <v>12.18</v>
+        <v>145.9770199</v>
       </c>
       <c r="L46">
-        <v>12.18</v>
+        <v>62.770118557</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6287,37 +6224,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>7.51</v>
       </c>
       <c r="G47">
-        <v>12.18</v>
+        <v>137.4972015</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>72.873516795</v>
       </c>
       <c r="K47">
-        <v>12.18</v>
+        <v>137.4972015</v>
       </c>
       <c r="L47">
-        <v>12.18</v>
+        <v>64.62368470499999</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -6328,10 +6265,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
         <v>114</v>
@@ -6340,68 +6277,27 @@
         <v>118</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>12.18</v>
+        <v>189.48</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>12.18</v>
+        <v>62.5284</v>
       </c>
       <c r="L48">
-        <v>12.18</v>
+        <v>62.5284</v>
       </c>
       <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
-      <c r="G49">
-        <v>226.12</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0.4</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>90.44800000000001</v>
-      </c>
-      <c r="L49">
-        <v>90.44800000000001</v>
-      </c>
-      <c r="M49">
         <v>0</v>
       </c>
     </row>
@@ -6420,19 +6316,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6440,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6460,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6480,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6500,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6520,7 +6416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6540,7 +6436,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6560,7 +6456,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6580,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6600,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6620,7 +6516,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6640,7 +6536,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6660,7 +6556,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6680,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6700,7 +6596,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6720,7 +6616,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6740,7 +6636,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6760,7 +6656,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6780,7 +6676,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6800,7 +6696,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6820,7 +6716,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6840,7 +6736,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6860,7 +6756,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6880,7 +6776,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6900,7 +6796,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6920,7 +6816,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6940,7 +6836,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6960,7 +6856,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6980,7 +6876,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -7000,19 +6896,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>90.44800000000001</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>90.44800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7020,19 +6916,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>62.5284</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>62.5284</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7040,7 +6936,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -7060,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7080,7 +6976,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7100,7 +6996,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7120,7 +7016,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -7140,7 +7036,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -7160,7 +7056,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -7180,7 +7076,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -7200,7 +7096,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -7220,7 +7116,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -7240,7 +7136,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -7260,19 +7156,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1072.48</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="E43">
         <v>938.5700000000001</v>
       </c>
       <c r="F43">
-        <v>-938.5700000000001</v>
+        <v>597.4299999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7280,19 +7176,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1305.25746921</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1507.32246921</v>
       </c>
       <c r="E44">
         <v>1079.52</v>
       </c>
       <c r="F44">
-        <v>-1079.52</v>
+        <v>427.80246921</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7300,7 +7196,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -7320,19 +7216,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>715.626</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1146.8</v>
       </c>
       <c r="E46">
         <v>655.9400000000001</v>
       </c>
       <c r="F46">
-        <v>-655.9400000000001</v>
+        <v>490.8599999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7340,19 +7236,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>538.07722589</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1134.52628125</v>
       </c>
       <c r="E47">
         <v>307.8</v>
       </c>
       <c r="F47">
-        <v>-307.8</v>
+        <v>826.7262812500001</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7360,19 +7256,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1366.358318986645</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1559.478756806799</v>
       </c>
       <c r="E48">
         <v>1094.31</v>
       </c>
       <c r="F48">
-        <v>-1094.31</v>
+        <v>465.1687568067994</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7380,19 +7276,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>587.556003633</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>778.3051451499999</v>
       </c>
       <c r="E49">
         <v>667.67</v>
       </c>
       <c r="F49">
-        <v>-667.67</v>
+        <v>110.63514515</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7400,19 +7296,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="C50">
-        <v>1244.6975</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1464.35</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>817.97</v>
       </c>
       <c r="F50">
-        <v>646.3800000000001</v>
+        <v>-817.97</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7420,19 +7316,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="C51">
-        <v>653.502576952479</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>910.9639187764791</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>475.85</v>
       </c>
       <c r="F51">
-        <v>435.1139187764791</v>
+        <v>-475.85</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7440,19 +7336,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C52">
-        <v>908.6785</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>927.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>712.73</v>
       </c>
       <c r="F52">
-        <v>214.6700000000001</v>
+        <v>-712.73</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7460,19 +7356,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="C53">
-        <v>1339.875588254</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1484.8619276</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>844.17</v>
       </c>
       <c r="F53">
-        <v>640.6919276</v>
+        <v>-844.17</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7480,19 +7376,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C54">
-        <v>796.538</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1189.18</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>635.34</v>
       </c>
       <c r="F54">
-        <v>553.84</v>
+        <v>-635.34</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7500,19 +7396,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C55">
-        <v>586.3631546099999</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>608.80811448</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>375.82</v>
       </c>
       <c r="F55">
-        <v>232.98811448</v>
+        <v>-375.82</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7520,19 +7416,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C56">
-        <v>983.64</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>983.64</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>567.71</v>
       </c>
       <c r="F56">
-        <v>415.9299999999999</v>
+        <v>-567.71</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7540,19 +7436,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C57">
-        <v>233.814</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>877.26</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>134.16</v>
       </c>
       <c r="F57">
-        <v>743.1</v>
+        <v>-134.16</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7560,7 +7456,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -7580,7 +7476,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7600,7 +7496,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7620,7 +7516,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7640,7 +7536,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7660,7 +7556,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7680,7 +7576,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7719,16 +7615,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7745,16 +7641,16 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>82.916966456445</v>
       </c>
       <c r="F2">
-        <v>36.54</v>
+        <v>150.7581208299</v>
       </c>
       <c r="G2">
-        <v>291.81</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>-255.27</v>
+        <v>128.7581208299</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7771,16 +7667,16 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>355.7085</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>374.43</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>374.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7797,16 +7693,16 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>1030.352</v>
+        <v>538.07722589</v>
       </c>
       <c r="F4">
-        <v>1661.55</v>
+        <v>1203.99628125</v>
       </c>
       <c r="G4">
         <v>6503.97</v>
       </c>
       <c r="H4">
-        <v>-4842.42</v>
+        <v>-5299.97371875</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7823,16 +7719,16 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>84.5</v>
+        <v>266.9996339802001</v>
       </c>
       <c r="F5">
-        <v>395.6</v>
+        <v>311.4995729769001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>395.6</v>
+        <v>311.4995729769001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7849,16 +7745,16 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1269.52671855</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1799.901063</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1799.901063</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7901,16 +7797,16 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <v>1466.07315461</v>
+        <v>587.556003633</v>
       </c>
       <c r="F8">
-        <v>1488.51811448</v>
+        <v>778.3051451499999</v>
       </c>
       <c r="G8">
         <v>2546.54</v>
       </c>
       <c r="H8">
-        <v>-1058.02188552</v>
+        <v>-1768.23485485</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7927,16 +7823,16 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>1668.969765206479</v>
+        <v>769.0024692100001</v>
       </c>
       <c r="F9">
-        <v>2000.205846376479</v>
+        <v>915.5224692100001</v>
       </c>
       <c r="G9">
         <v>51.09</v>
       </c>
       <c r="H9">
-        <v>1949.115846376479</v>
+        <v>864.43246921</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7953,16 +7849,16 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>1767.5975</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1987.25</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1987.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7979,16 +7875,16 @@
         <v>41</v>
       </c>
       <c r="E11">
-        <v>354.4784</v>
+        <v>1355.65</v>
       </c>
       <c r="F11">
-        <v>482.94</v>
+        <v>1355.65</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>482.94</v>
+        <v>1355.65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8005,16 +7901,16 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>715.626</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1146.8</v>
       </c>
       <c r="G12">
         <v>5833.04</v>
       </c>
       <c r="H12">
-        <v>-5833.04</v>
+        <v>-4686.24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8031,16 +7927,16 @@
         <v>43</v>
       </c>
       <c r="E13">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -8086,13 +7982,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>90.44800000000001</v>
+        <v>62.5284</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>90.44800000000001</v>
+        <v>62.5284</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -8139,16 +8035,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8159,16 +8055,16 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>82.92</v>
       </c>
       <c r="D2">
-        <v>36.54</v>
+        <v>150.76</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>36.54</v>
+        <v>128.76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8179,16 +8075,16 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>355.71</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>374.43</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>310.37</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>64.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8199,16 +8095,16 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <v>1114.85</v>
+        <v>2074.6</v>
       </c>
       <c r="D4">
-        <v>2057.15</v>
+        <v>3315.4</v>
       </c>
       <c r="E4">
-        <v>814.5700000000001</v>
+        <v>1478.11</v>
       </c>
       <c r="F4">
-        <v>1242.58</v>
+        <v>1837.29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8219,16 +8115,16 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <v>1466.07</v>
+        <v>587.5599999999999</v>
       </c>
       <c r="D5">
-        <v>1488.52</v>
+        <v>778.3099999999999</v>
       </c>
       <c r="E5">
-        <v>886.28</v>
+        <v>667.67</v>
       </c>
       <c r="F5">
-        <v>602.24</v>
+        <v>110.64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8239,16 +8135,16 @@
         <v>39</v>
       </c>
       <c r="C6">
-        <v>1668.97</v>
+        <v>769</v>
       </c>
       <c r="D6">
-        <v>2000.21</v>
+        <v>915.52</v>
       </c>
       <c r="E6">
-        <v>1101.76</v>
+        <v>766.97</v>
       </c>
       <c r="F6">
-        <v>898.45</v>
+        <v>148.55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8259,16 +8155,16 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>1767.6</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1987.25</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1438.59</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>548.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8279,16 +8175,16 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>354.48</v>
+        <v>1355.65</v>
       </c>
       <c r="D8">
-        <v>482.94</v>
+        <v>1355.65</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1152.82</v>
       </c>
       <c r="F8">
-        <v>482.94</v>
+        <v>202.83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8299,16 +8195,16 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>715.63</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1146.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>655.9400000000001</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>490.86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8319,16 +8215,16 @@
         <v>43</v>
       </c>
       <c r="C10">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>19.43</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8362,13 +8258,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>90.45</v>
+        <v>62.53</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>90.45</v>
+        <v>62.53</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="501">
   <si>
     <t>Items</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>Contract_value (without mobilization)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1724,15 +1727,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1771,6 +1765,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2412,59 +2418,66 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="8" width="13.42578125" style="25" customWidth="1"/>
+    <col min="9" max="17" width="13.42578125" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2475,49 +2488,49 @@
       <c r="B2" t="s">
         <v>395</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>8.1750000000000007</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2528,49 +2541,49 @@
       <c r="B3" t="s">
         <v>396</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2581,49 +2594,49 @@
       <c r="B4" t="s">
         <v>397</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2634,49 +2647,49 @@
       <c r="B5" t="s">
         <v>398</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2687,49 +2700,49 @@
       <c r="B6" t="s">
         <v>399</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>0.58999999999999631</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2740,49 +2753,49 @@
       <c r="B7" t="s">
         <v>400</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2793,49 +2806,49 @@
       <c r="B8" t="s">
         <v>401</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>1.994999999999997</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>0.46548000000000012</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2846,49 +2859,49 @@
       <c r="B9" t="s">
         <v>477</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2899,49 +2912,49 @@
       <c r="B10" t="s">
         <v>402</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2952,49 +2965,49 @@
       <c r="B11" t="s">
         <v>403</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
         <v>1.2</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>4.2300000000000004</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3005,49 +3018,49 @@
       <c r="B12" t="s">
         <v>404</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
         <v>5.0000000000000037E-2</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <v>5.43</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3058,49 +3071,49 @@
       <c r="B13" t="s">
         <v>405</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3111,49 +3124,49 @@
       <c r="B14" t="s">
         <v>406</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
         <v>0.1000000000000001</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <v>6.6</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3164,49 +3177,49 @@
       <c r="B15" t="s">
         <v>407</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
         <v>5.0000000000000037E-2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
         <v>2.8660000000000001</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3217,49 +3230,49 @@
       <c r="B16" t="s">
         <v>408</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3270,49 +3283,49 @@
       <c r="B17" t="s">
         <v>409</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
         <v>0.15</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3323,49 +3336,49 @@
       <c r="B18" t="s">
         <v>410</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3376,49 +3389,49 @@
       <c r="B19" t="s">
         <v>411</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
         <v>1.4</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>13.895</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3429,49 +3442,49 @@
       <c r="B20" t="s">
         <v>412</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>16.1328</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3482,49 +3495,49 @@
       <c r="B21" t="s">
         <v>413</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
         <v>0.25</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3535,49 +3548,49 @@
       <c r="B22" t="s">
         <v>414</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
         <v>1.07</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>9.4939999999999998</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>5</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3588,49 +3601,49 @@
       <c r="B23" t="s">
         <v>415</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
         <v>3</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="25">
         <v>0.85</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>8.7590000000000003</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3641,49 +3654,49 @@
       <c r="B24" t="s">
         <v>416</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
         <v>0.20000000000000021</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>0.53249999999999997</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>0.90199999999999969</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3694,49 +3707,49 @@
       <c r="B25" t="s">
         <v>417</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3747,49 +3760,49 @@
       <c r="B26" t="s">
         <v>418</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="25">
         <v>2.1</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
         <v>0.35</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
         <v>0.35</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
         <v>1.056</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3800,49 +3813,49 @@
       <c r="B27" t="s">
         <v>419</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3853,49 +3866,49 @@
       <c r="B28" t="s">
         <v>420</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="25">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25">
         <v>2</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3906,49 +3919,49 @@
       <c r="B29" t="s">
         <v>421</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
         <v>4.07</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3959,49 +3972,49 @@
       <c r="B30" t="s">
         <v>437</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
         <v>2.8</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4012,49 +4025,49 @@
       <c r="B31" t="s">
         <v>428</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
         <v>1.98</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4065,49 +4078,49 @@
       <c r="B32" t="s">
         <v>444</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="25">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
         <v>4.07</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4118,49 +4131,49 @@
       <c r="B33" t="s">
         <v>478</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4171,49 +4184,49 @@
       <c r="B34" t="s">
         <v>479</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4224,49 +4237,49 @@
       <c r="B35" t="s">
         <v>480</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4277,49 +4290,49 @@
       <c r="B36" t="s">
         <v>481</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0</v>
+      </c>
+      <c r="H36" s="25">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4330,49 +4343,49 @@
       <c r="B37" t="s">
         <v>482</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+      <c r="G37" s="25">
+        <v>0</v>
+      </c>
+      <c r="H37" s="25">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4383,49 +4396,49 @@
       <c r="B38" t="s">
         <v>483</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="C38" s="25">
+        <v>0</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4436,49 +4449,49 @@
       <c r="B39" t="s">
         <v>484</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4489,49 +4502,49 @@
       <c r="B40" t="s">
         <v>485</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="C40" s="25">
+        <v>0</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0</v>
+      </c>
+      <c r="E40" s="25">
+        <v>0</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0</v>
+      </c>
+      <c r="H40" s="25">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4542,49 +4555,49 @@
       <c r="B41" t="s">
         <v>486</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="C41" s="25">
+        <v>0</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4595,49 +4608,49 @@
       <c r="B42" t="s">
         <v>487</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="C42" s="25">
+        <v>0</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0</v>
+      </c>
+      <c r="E42" s="25">
+        <v>0</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0</v>
+      </c>
+      <c r="G42" s="25">
+        <v>0</v>
+      </c>
+      <c r="H42" s="25">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4648,49 +4661,49 @@
       <c r="B43" t="s">
         <v>422</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0</v>
+      </c>
+      <c r="E43" s="25">
+        <v>1</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0</v>
+      </c>
+      <c r="G43" s="25">
+        <v>1</v>
+      </c>
+      <c r="H43" s="25">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
         <v>3.48</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4701,49 +4714,49 @@
       <c r="B44" t="s">
         <v>423</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="C44" s="25">
+        <v>0</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0</v>
+      </c>
+      <c r="F44" s="25">
+        <v>0</v>
+      </c>
+      <c r="G44" s="25">
         <v>0.95</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+      <c r="H44" s="25">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4754,49 +4767,49 @@
       <c r="B45" t="s">
         <v>488</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="C45" s="25">
+        <v>0</v>
+      </c>
+      <c r="D45" s="25">
+        <v>0</v>
+      </c>
+      <c r="E45" s="25">
+        <v>0</v>
+      </c>
+      <c r="F45" s="25">
+        <v>0</v>
+      </c>
+      <c r="G45" s="25">
+        <v>0</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4807,49 +4820,49 @@
       <c r="B46" t="s">
         <v>424</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
+      <c r="C46" s="25">
+        <v>0</v>
+      </c>
+      <c r="D46" s="25">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0</v>
+      </c>
+      <c r="F46" s="25">
+        <v>0</v>
+      </c>
+      <c r="G46" s="25">
+        <v>0</v>
+      </c>
+      <c r="H46" s="25">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
         <v>12.3475</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4860,49 +4873,49 @@
       <c r="B47" t="s">
         <v>425</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="C47" s="25">
+        <v>0</v>
+      </c>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="25">
         <v>3.7</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="F47" s="25">
+        <v>0</v>
+      </c>
+      <c r="G47" s="25">
+        <v>0</v>
+      </c>
+      <c r="H47" s="25">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4913,49 +4926,49 @@
       <c r="B48" t="s">
         <v>426</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="25">
         <v>6.75</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="25">
         <v>1.2000000000000011</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="25">
         <v>0.29999999999999982</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
+      <c r="H48" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4966,49 +4979,49 @@
       <c r="B49" t="s">
         <v>427</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="C49" s="25">
+        <v>0</v>
+      </c>
+      <c r="D49" s="25">
+        <v>0</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0</v>
+      </c>
+      <c r="G49" s="25">
+        <v>0</v>
+      </c>
+      <c r="H49" s="25">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
         <v>7.8445499999999981</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5019,49 +5032,49 @@
       <c r="B50" t="s">
         <v>429</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="C50" s="25">
+        <v>0</v>
+      </c>
+      <c r="D50" s="25">
+        <v>0</v>
+      </c>
+      <c r="E50" s="25">
+        <v>0</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0</v>
+      </c>
+      <c r="G50" s="25">
+        <v>0</v>
+      </c>
+      <c r="H50" s="25">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <v>6.9776999999999987</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5072,49 +5085,49 @@
       <c r="B51" t="s">
         <v>430</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="C51" s="25">
+        <v>0</v>
+      </c>
+      <c r="D51" s="25">
+        <v>0</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0</v>
+      </c>
+      <c r="F51" s="25">
+        <v>0</v>
+      </c>
+      <c r="G51" s="25">
+        <v>0</v>
+      </c>
+      <c r="H51" s="25">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
         <v>15.857919999999989</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5125,49 +5138,49 @@
       <c r="B52" t="s">
         <v>431</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+      <c r="D52" s="25">
         <v>5.0000000000000037E-2</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
+      <c r="E52" s="25">
+        <v>0</v>
+      </c>
+      <c r="F52" s="25">
+        <v>0</v>
+      </c>
+      <c r="G52" s="25">
+        <v>0</v>
+      </c>
+      <c r="H52" s="25">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5178,49 +5191,49 @@
       <c r="B53" t="s">
         <v>432</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="C53" s="25">
+        <v>0</v>
+      </c>
+      <c r="D53" s="25">
+        <v>0</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0</v>
+      </c>
+      <c r="G53" s="25">
+        <v>0</v>
+      </c>
+      <c r="H53" s="25">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
         <v>1.083500000000001</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
         <v>1.755000000000001</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5231,49 +5244,49 @@
       <c r="B54" t="s">
         <v>433</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="C54" s="25">
+        <v>0</v>
+      </c>
+      <c r="D54" s="25">
+        <v>0</v>
+      </c>
+      <c r="E54" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="F54" s="25">
+        <v>0</v>
+      </c>
+      <c r="G54" s="25">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
         <v>3.0710000000000002</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5284,49 +5297,49 @@
       <c r="B55" t="s">
         <v>434</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
+      <c r="C55" s="25">
+        <v>0</v>
+      </c>
+      <c r="D55" s="25">
+        <v>0</v>
+      </c>
+      <c r="E55" s="25">
+        <v>0</v>
+      </c>
+      <c r="F55" s="25">
+        <v>0</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
         <v>0.62259999999999849</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5337,49 +5350,49 @@
       <c r="B56" t="s">
         <v>435</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+      <c r="C56" s="25">
+        <v>0</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0</v>
+      </c>
+      <c r="E56" s="25">
+        <v>0</v>
+      </c>
+      <c r="F56" s="25">
+        <v>0</v>
+      </c>
+      <c r="G56" s="25">
+        <v>0</v>
+      </c>
+      <c r="H56" s="25">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4">
+        <v>0</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5390,49 +5403,49 @@
       <c r="B57" t="s">
         <v>436</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="25">
         <v>3</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="25">
+        <v>0</v>
+      </c>
+      <c r="E57" s="25">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="25">
         <v>5</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="G57" s="25">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5443,49 +5456,49 @@
       <c r="B58" t="s">
         <v>438</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="25">
         <v>9</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="D58" s="25">
+        <v>0</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0</v>
+      </c>
+      <c r="F58" s="25">
         <v>3.22</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="G58" s="25">
+        <v>0</v>
+      </c>
+      <c r="H58" s="25">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
         <v>1.22848</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
         <v>14.21658</v>
       </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="N58" s="4">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5496,49 +5509,49 @@
       <c r="B59" t="s">
         <v>439</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
+      <c r="C59" s="25">
+        <v>0</v>
+      </c>
+      <c r="D59" s="25">
+        <v>0</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0</v>
+      </c>
+      <c r="F59" s="25">
+        <v>0</v>
+      </c>
+      <c r="G59" s="25">
+        <v>0</v>
+      </c>
+      <c r="H59" s="25">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
         <v>7.3149999999999977</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5549,49 +5562,49 @@
       <c r="B60" t="s">
         <v>440</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="C60" s="25">
+        <v>0</v>
+      </c>
+      <c r="D60" s="25">
+        <v>0</v>
+      </c>
+      <c r="E60" s="25">
         <v>0.8</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="25">
+        <v>0</v>
+      </c>
+      <c r="G60" s="25">
         <v>2.4</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
+      <c r="H60" s="25">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5602,49 +5615,49 @@
       <c r="B61" t="s">
         <v>441</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
+      <c r="C61" s="25">
+        <v>0</v>
+      </c>
+      <c r="D61" s="25">
+        <v>0</v>
+      </c>
+      <c r="E61" s="25">
+        <v>0</v>
+      </c>
+      <c r="F61" s="25">
+        <v>0</v>
+      </c>
+      <c r="G61" s="25">
+        <v>0</v>
+      </c>
+      <c r="H61" s="25">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
         <v>0.69879999999999853</v>
       </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5655,49 +5668,49 @@
       <c r="B62" t="s">
         <v>442</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="C62" s="25">
+        <v>0</v>
+      </c>
+      <c r="D62" s="25">
+        <v>0</v>
+      </c>
+      <c r="E62" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="25">
+        <v>0</v>
+      </c>
+      <c r="G62" s="25">
         <v>2</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
+      <c r="H62" s="25">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5708,49 +5721,49 @@
       <c r="B63" t="s">
         <v>443</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="25">
         <v>12</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
+      <c r="D63" s="25">
+        <v>0</v>
+      </c>
+      <c r="E63" s="25">
+        <v>0</v>
+      </c>
+      <c r="F63" s="25">
+        <v>1</v>
+      </c>
+      <c r="G63" s="25">
+        <v>0</v>
+      </c>
+      <c r="H63" s="25">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0</v>
+      </c>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5761,50 +5774,100 @@
       <c r="B64" t="s">
         <v>445</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
+      <c r="C64" s="25">
+        <v>0</v>
+      </c>
+      <c r="D64" s="25">
+        <v>0</v>
+      </c>
+      <c r="E64" s="25">
+        <v>0</v>
+      </c>
+      <c r="F64" s="25">
+        <v>0</v>
+      </c>
+      <c r="G64" s="25">
+        <v>0</v>
+      </c>
+      <c r="H64" s="25">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
         <v>0.06</v>
       </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C65" s="25">
+        <f>SUM(C2:C64)</f>
+        <v>32.85</v>
+      </c>
+      <c r="D65" s="25">
+        <f t="shared" ref="D65:N65" si="0">SUM(D2:D64)</f>
+        <v>1.05</v>
+      </c>
+      <c r="E65" s="25">
+        <f t="shared" si="0"/>
+        <v>14.270000000000001</v>
+      </c>
+      <c r="F65" s="25">
+        <f t="shared" si="0"/>
+        <v>14.420000000000002</v>
+      </c>
+      <c r="G65" s="25">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="H65" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="25">
+        <f t="shared" si="0"/>
+        <v>59.380929999999985</v>
+      </c>
+      <c r="J65" s="25">
+        <f t="shared" si="0"/>
+        <v>28.596419999999991</v>
+      </c>
+      <c r="K65" s="25">
+        <f t="shared" si="0"/>
+        <v>6.9776999999999987</v>
+      </c>
+      <c r="L65" s="25">
+        <f t="shared" si="0"/>
+        <v>4.8260000000000014</v>
+      </c>
+      <c r="M65" s="25">
+        <f t="shared" si="0"/>
+        <v>57.900359999999992</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -20216,20 +20279,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -31897,7 +31960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -31938,7 +32001,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -31967,297 +32030,297 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>401.24678642999999</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>0.99999999999999989</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>401.24678642999999</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>401.24678642999999</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>347.71</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="14">
         <v>53.536786430000063</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="14">
         <v>53.536786430000063</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>693.97</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
         <v>693.97</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>693.97</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>625.92999999999995</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>68.040000000000077</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>68.040000000000077</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>713.99</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>0.99999999999999978</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>713.99</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>713.99</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>714.69</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="14">
         <v>-0.70000000000004547</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>-0.70000000000004547</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>767.57728129899999</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>0.98857538488351371</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>758.808006288</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <v>767.57728129899999</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <v>575.15</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="24">
         <v>192.42728129899999</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>183.658006288</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>849.54187738936992</v>
       </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
         <v>849.54187738936992</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>849.54187738936992</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>837.25</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>12.291877389369921</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>12.291877389369921</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>1056.67624443</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <v>0.57156756771984929</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <v>603.96187089620003</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <v>812.34260185120002</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <v>565.07000000000005</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>247.27260185119999</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>38.891870896199983</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>695.37</v>
       </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
         <v>695.37</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>695.37</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <v>712.33</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <v>-16.96000000000004</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <v>-16.96000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>883.95999999999992</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>0.65294798407167742</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>577.17989999999998</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>835.88750000000005</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <v>409.68</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <v>426.20749999999998</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <v>167.4999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>832.12</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>0.64844072970244682</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>539.58050000000003</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>832.12</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>522.86</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="20">
         <v>309.26</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>16.720500000000019</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -32286,152 +32349,152 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>980.75598947870003</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>0.6358690668032102</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>623.63239579148001</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>980.75598947870003</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <v>647.20000000000005</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="16">
         <v>333.55598947869998</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="16">
         <v>-23.567604208520041</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>883.6400000000001</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <v>0.75648205151419123</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>668.45780000000002</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>883.6400000000001</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>806.89</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="16">
         <v>76.750000000000114</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="16">
         <v>-138.43219999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>783.81999999999994</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>0.78706845959531524</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>616.91999999999996</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <v>616.91999999999996</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="20">
         <v>333.94</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="20">
         <v>282.98</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <v>282.98</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>779.17000000000007</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>0.94842973933801333</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="20">
         <v>738.98800000000006</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <v>779.17000000000007</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="20">
         <v>721.62</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="20">
         <v>57.550000000000068</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="20">
         <v>17.368000000000048</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="16">
         <v>1568.1457086800001</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="16">
         <v>0.99999999999999978</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>1568.1457086800001</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="16">
         <v>1568.1457086800001</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="16">
         <v>1451.95</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="16">
         <v>116.19570868000029</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>116.19570868000029</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -32460,7 +32523,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -32489,7 +32552,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -32518,7 +32581,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -32547,7 +32610,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -32576,7 +32639,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -32605,7 +32668,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -32634,7 +32697,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -32663,7 +32726,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -32692,7 +32755,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -32721,7 +32784,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -32750,7 +32813,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -32779,7 +32842,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -32808,7 +32871,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -32837,7 +32900,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -32866,7 +32929,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -32895,7 +32958,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -32924,7 +32987,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -32953,7 +33016,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -32982,7 +33045,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -33011,7 +33074,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -33040,7 +33103,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -33069,7 +33132,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -33098,7 +33161,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -33127,7 +33190,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -33156,7 +33219,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -33185,7 +33248,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -33214,7 +33277,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -33243,7 +33306,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -33272,7 +33335,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -33301,7 +33364,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -33330,7 +33393,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -33359,7 +33422,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -33388,7 +33451,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -33417,7 +33480,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -33446,7 +33509,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -33475,7 +33538,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -33504,7 +33567,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -33533,7 +33596,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -33562,7 +33625,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -33591,7 +33654,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -33620,7 +33683,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -33649,7 +33712,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -33678,7 +33741,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -33707,7 +33770,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -33736,7 +33799,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -33766,28 +33829,28 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
-      <c r="C65" s="23">
+      <c r="C65" s="20">
         <f>SUM(C2:C64)</f>
         <v>51210.109588409279</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23">
+      <c r="D65" s="20"/>
+      <c r="E65" s="20">
         <f>SUM(E2:E64)</f>
         <v>35063.043525252557</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="20">
         <f>SUM(F2:F64)</f>
         <v>47560.153975482397</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="20">
         <f>SUM(G2:G64)</f>
         <v>30629.416999999994</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="20">
         <f>SUM(H2:H64)</f>
         <v>16930.736975482399</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="20">
         <f>SUM(I2:I64)</f>
         <v>4433.62652525256</v>
       </c>

--- a/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_output.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="535">
   <si>
     <t>Items</t>
   </si>
@@ -1839,7 +1839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1972,15 +1972,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1991,6 +1982,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6035,25 +6048,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R186" sqref="R186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="61.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" style="63" customWidth="1"/>
     <col min="4" max="6" width="9.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="14" style="52" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -6062,7 +6075,7 @@
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -13538,32 +13551,32 @@
       <c r="P151"/>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>87</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
         <v>9.42</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="2">
         <v>237.21</v>
       </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>422</v>
       </c>
       <c r="J152" t="s">
@@ -13575,7 +13588,7 @@
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152" s="2" t="s">
         <v>460</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -13585,32 +13598,32 @@
       <c r="P152"/>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>87</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
         <v>7</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="2">
         <v>149.29</v>
       </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="G153" s="2">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2" t="s">
         <v>422</v>
       </c>
       <c r="J153" t="s">
@@ -13622,7 +13635,7 @@
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" s="2" t="s">
         <v>460</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -13632,32 +13645,32 @@
       <c r="P153"/>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>87</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="2">
         <v>732.6</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="2">
         <v>0.8</v>
       </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="H154" s="2">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>422</v>
       </c>
       <c r="J154" t="s">
@@ -13669,13 +13682,15 @@
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" s="2" t="s">
         <v>460</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O154"/>
+      <c r="O154" s="20" t="s">
+        <v>510</v>
+      </c>
       <c r="P154"/>
       <c r="Q154"/>
     </row>
@@ -13686,25 +13701,25 @@
       <c r="B155" t="s">
         <v>87</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="2">
         <v>2.9249999999999998</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="2">
         <v>99.9</v>
       </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="G155" s="2">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>422</v>
       </c>
       <c r="J155" t="s">
@@ -13716,7 +13731,7 @@
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155" s="2" t="s">
         <v>460</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -13726,32 +13741,32 @@
       <c r="P155"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>87</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
         <v>69.47</v>
       </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>1</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>422</v>
       </c>
       <c r="J156" t="s">
@@ -13763,42 +13778,44 @@
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156" s="2" t="s">
         <v>460</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O156"/>
+      <c r="O156" s="20" t="s">
+        <v>510</v>
+      </c>
       <c r="P156"/>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>87</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
+      <c r="E157" s="65">
+        <v>1</v>
+      </c>
+      <c r="F157" s="65">
         <v>247.53</v>
       </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="G157" s="65">
+        <v>0</v>
+      </c>
+      <c r="H157" s="65">
+        <v>1</v>
+      </c>
+      <c r="I157" s="65" t="s">
         <v>422</v>
       </c>
       <c r="J157" t="s">
@@ -13810,42 +13827,46 @@
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157" s="65" t="s">
         <v>460</v>
       </c>
-      <c r="N157" s="2" t="s">
+      <c r="N157" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="O157"/>
+      <c r="O157" s="14" t="s">
+        <v>510</v>
+      </c>
       <c r="P157"/>
-      <c r="Q157"/>
-    </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q157" s="66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>88</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="2">
         <v>5.7</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="2">
         <v>287.52999999999997</v>
       </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="G158" s="2">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2">
+        <v>1</v>
+      </c>
+      <c r="I158" s="2" t="s">
         <v>423</v>
       </c>
       <c r="J158" t="s">
@@ -13857,7 +13878,7 @@
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" s="2" t="s">
         <v>461</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -13867,32 +13888,32 @@
       <c r="P158"/>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>88</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="2">
         <v>16.02</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="2">
         <v>377.59</v>
       </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159" t="s">
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1</v>
+      </c>
+      <c r="I159" s="2" t="s">
         <v>423</v>
       </c>
       <c r="J159" t="s">
@@ -13904,7 +13925,7 @@
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159" s="2" t="s">
         <v>461</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -13921,25 +13942,25 @@
       <c r="B160" t="s">
         <v>88</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
         <v>9.42</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="2">
         <v>304.02999999999997</v>
       </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160" t="s">
+      <c r="G160" s="2">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2">
+        <v>1</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>423</v>
       </c>
       <c r="J160" t="s">
@@ -13951,7 +13972,7 @@
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160" s="2" t="s">
         <v>461</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -13968,25 +13989,25 @@
       <c r="B161" t="s">
         <v>88</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
         <v>1.79</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="2">
         <v>53.047480929999999</v>
       </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="G161" s="2">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2">
+        <v>1</v>
+      </c>
+      <c r="I161" s="2" t="s">
         <v>423</v>
       </c>
       <c r="J161" t="s">
@@ -13998,7 +14019,7 @@
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" s="2" t="s">
         <v>461</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -14015,25 +14036,25 @@
       <c r="B162" t="s">
         <v>88</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="2">
         <v>2.72</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="2">
         <v>29.974988280000002</v>
       </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="I162" t="s">
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>423</v>
       </c>
       <c r="J162" t="s">
@@ -14045,7 +14066,7 @@
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="2" t="s">
         <v>461</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -14055,32 +14076,32 @@
       <c r="P162"/>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>88</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163">
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
         <v>244.2</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="2">
         <v>0.95</v>
       </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163" t="s">
+      <c r="H163" s="2">
+        <v>1</v>
+      </c>
+      <c r="I163" s="2" t="s">
         <v>423</v>
       </c>
       <c r="J163" t="s">
@@ -14092,42 +14113,44 @@
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163" s="2" t="s">
         <v>461</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O163"/>
+      <c r="O163" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P163"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164" s="67">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>88</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164">
+      <c r="E164" s="65">
+        <v>1</v>
+      </c>
+      <c r="F164" s="65">
         <v>210.95</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="65">
         <v>0.1</v>
       </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="H164" s="65">
+        <v>1</v>
+      </c>
+      <c r="I164" s="65" t="s">
         <v>423</v>
       </c>
       <c r="J164">
@@ -14139,42 +14162,46 @@
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" s="65" t="s">
         <v>461</v>
       </c>
-      <c r="N164" s="2" t="s">
+      <c r="N164" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="O164"/>
-      <c r="P164"/>
-      <c r="Q164"/>
-    </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="P164" s="66"/>
+      <c r="Q164" s="66">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>89</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="65">
         <v>23.815000000000001</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="65">
         <v>638.85</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="65">
         <v>0.5</v>
       </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="H165" s="65">
+        <v>1</v>
+      </c>
+      <c r="I165" s="65" t="s">
         <v>424</v>
       </c>
       <c r="J165" t="s">
@@ -14186,42 +14213,46 @@
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="N165" s="2" t="s">
+      <c r="N165" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="O165"/>
-      <c r="P165"/>
-      <c r="Q165"/>
-    </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O165" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="P165" s="66"/>
+      <c r="Q165" s="66">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>89</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="65">
         <v>2</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="65">
         <v>507.95</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="65">
         <v>0.78</v>
       </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-      <c r="I166" t="s">
+      <c r="H166" s="65">
+        <v>1</v>
+      </c>
+      <c r="I166" s="65" t="s">
         <v>424</v>
       </c>
       <c r="J166" t="s">
@@ -14233,42 +14264,46 @@
       <c r="L166">
         <v>0</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="N166" s="65" t="s">
         <v>472</v>
       </c>
-      <c r="O166"/>
-      <c r="P166"/>
-      <c r="Q166"/>
-    </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="P166" s="66"/>
+      <c r="Q166" s="66">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>90</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
         <v>141.3235316</v>
       </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
         <v>0.75</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J167" t="s">
@@ -14280,42 +14315,44 @@
       <c r="L167">
         <v>0</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O167"/>
+      <c r="O167" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P167"/>
       <c r="Q167"/>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>90</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168">
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2">
         <v>154.0745714</v>
       </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
         <v>0.75</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J168" t="s">
@@ -14327,42 +14364,44 @@
       <c r="L168">
         <v>0</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N168" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O168"/>
+      <c r="O168" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P168"/>
       <c r="Q168"/>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>90</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169">
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
         <v>151.0703345</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="2">
         <v>0.3</v>
       </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="H169" s="2">
+        <v>1</v>
+      </c>
+      <c r="I169" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J169" t="s">
@@ -14374,42 +14413,44 @@
       <c r="L169">
         <v>0</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O169"/>
+      <c r="O169" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P169"/>
       <c r="Q169"/>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>91</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170">
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="2">
         <v>143.81093200000001</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="2">
         <v>0.1</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="2">
         <v>0.7</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J170" t="s">
@@ -14421,42 +14462,44 @@
       <c r="L170">
         <v>0</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O170"/>
+      <c r="O170" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P170"/>
       <c r="Q170"/>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>91</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+      <c r="F171" s="2">
         <v>155.69327179999999</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="2">
         <v>0.8</v>
       </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171" t="s">
+      <c r="H171" s="2">
+        <v>1</v>
+      </c>
+      <c r="I171" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J171" t="s">
@@ -14468,42 +14511,44 @@
       <c r="L171">
         <v>0</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N171" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O171"/>
+      <c r="O171" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P171"/>
       <c r="Q171"/>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>91</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172">
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="2">
         <v>216.75147200000001</v>
       </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
         <v>0.7</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J172" t="s">
@@ -14515,13 +14560,15 @@
       <c r="L172">
         <v>0</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N172" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O172"/>
+      <c r="O172" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P172"/>
       <c r="Q172"/>
     </row>
@@ -14532,25 +14579,25 @@
       <c r="B173" t="s">
         <v>90</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173">
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+      <c r="F173" s="2">
         <v>353.8204149</v>
       </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
-      <c r="I173" t="s">
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2">
+        <v>1</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>425</v>
       </c>
       <c r="J173" t="s">
@@ -14562,7 +14609,7 @@
       <c r="L173">
         <v>0</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -14579,25 +14626,25 @@
       <c r="B174" t="s">
         <v>92</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174">
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+      <c r="F174" s="2">
         <v>415.5317</v>
       </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="G174" s="2">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2">
+        <v>1</v>
+      </c>
+      <c r="I174" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J174" t="s">
@@ -14609,7 +14656,7 @@
       <c r="L174">
         <v>0</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -14619,32 +14666,32 @@
       <c r="P174"/>
       <c r="Q174"/>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>92</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175">
+      <c r="E175" s="2">
+        <v>1</v>
+      </c>
+      <c r="F175" s="2">
         <v>373.34588300000001</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="2">
         <v>0.85</v>
       </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="H175" s="2">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J175" t="s">
@@ -14656,13 +14703,15 @@
       <c r="L175">
         <v>0</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O175"/>
+      <c r="O175" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P175"/>
       <c r="Q175"/>
     </row>
@@ -14673,25 +14722,25 @@
       <c r="B176" t="s">
         <v>92</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176">
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
         <v>143.16040000000001</v>
       </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="I176" t="s">
+      <c r="G176" s="2">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J176" t="s">
@@ -14703,7 +14752,7 @@
       <c r="L176">
         <v>0</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -14713,32 +14762,32 @@
       <c r="P176"/>
       <c r="Q176"/>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>92</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177">
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F177" s="2">
         <v>165.18307999999999</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="2">
         <v>0.85</v>
       </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="H177" s="2">
+        <v>1</v>
+      </c>
+      <c r="I177" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J177" t="s">
@@ -14750,42 +14799,44 @@
       <c r="L177">
         <v>0</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O177"/>
+      <c r="O177" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P177"/>
       <c r="Q177"/>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>92</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178">
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+      <c r="F178" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="2">
         <v>0.85</v>
       </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178" t="s">
+      <c r="H178" s="2">
+        <v>1</v>
+      </c>
+      <c r="I178" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J178" t="s">
@@ -14797,42 +14848,44 @@
       <c r="L178">
         <v>0</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N178" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O178"/>
+      <c r="O178" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P178"/>
       <c r="Q178"/>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>92</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179">
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+      <c r="F179" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="2">
         <v>0.85</v>
       </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179" t="s">
+      <c r="H179" s="2">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J179" t="s">
@@ -14844,42 +14897,44 @@
       <c r="L179">
         <v>0</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N179" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O179"/>
+      <c r="O179" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P179"/>
       <c r="Q179"/>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>92</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180">
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="2">
         <v>0.85</v>
       </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="I180" t="s">
+      <c r="H180" s="2">
+        <v>1</v>
+      </c>
+      <c r="I180" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J180" t="s">
@@ -14891,42 +14946,44 @@
       <c r="L180">
         <v>0</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N180" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O180"/>
+      <c r="O180" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P180"/>
       <c r="Q180"/>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>92</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181">
+      <c r="E181" s="2">
+        <v>1</v>
+      </c>
+      <c r="F181" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="2">
         <v>0.85</v>
       </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="H181" s="2">
+        <v>1</v>
+      </c>
+      <c r="I181" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J181" t="s">
@@ -14938,42 +14995,44 @@
       <c r="L181">
         <v>0</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O181"/>
+      <c r="O181" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P181"/>
       <c r="Q181"/>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>92</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182">
+      <c r="E182" s="2">
+        <v>1</v>
+      </c>
+      <c r="F182" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="2">
         <v>0.85</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182" t="s">
+      <c r="H182" s="2">
+        <v>1</v>
+      </c>
+      <c r="I182" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J182" t="s">
@@ -14985,42 +15044,44 @@
       <c r="L182">
         <v>0</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N182" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O182"/>
+      <c r="O182" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P182"/>
       <c r="Q182"/>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>92</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183">
+      <c r="E183" s="2">
+        <v>1</v>
+      </c>
+      <c r="F183" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="2">
         <v>0.85</v>
       </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183" t="s">
+      <c r="H183" s="2">
+        <v>1</v>
+      </c>
+      <c r="I183" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J183" t="s">
@@ -15032,42 +15093,44 @@
       <c r="L183">
         <v>0</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O183"/>
+      <c r="O183" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P183"/>
       <c r="Q183"/>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>92</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184">
+      <c r="E184" s="2">
+        <v>1</v>
+      </c>
+      <c r="F184" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="2">
         <v>0.85</v>
       </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="H184" s="2">
+        <v>1</v>
+      </c>
+      <c r="I184" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J184" t="s">
@@ -15079,42 +15142,44 @@
       <c r="L184">
         <v>0</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N184" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O184"/>
+      <c r="O184" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P184"/>
       <c r="Q184"/>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>92</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185">
+      <c r="E185" s="2">
+        <v>1</v>
+      </c>
+      <c r="F185" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="2">
         <v>0.85</v>
       </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-      <c r="I185" t="s">
+      <c r="H185" s="2">
+        <v>1</v>
+      </c>
+      <c r="I185" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J185" t="s">
@@ -15126,42 +15191,44 @@
       <c r="L185">
         <v>0</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N185" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O185"/>
+      <c r="O185" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P185"/>
       <c r="Q185"/>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>92</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186">
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+      <c r="F186" s="2">
         <v>37.083282497250011</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="2">
         <v>0.4</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="2">
         <v>0.4</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J186" t="s">
@@ -15173,42 +15240,44 @@
       <c r="L186">
         <v>0</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O186"/>
+      <c r="O186" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P186"/>
       <c r="Q186"/>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>92</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="2">
         <v>15</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="2">
         <v>150.75812082990001</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="H187" s="2">
+        <v>1</v>
+      </c>
+      <c r="I187" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J187" t="s">
@@ -15220,13 +15289,15 @@
       <c r="L187">
         <v>0</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O187"/>
+      <c r="O187" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P187"/>
       <c r="Q187"/>
     </row>
@@ -15237,25 +15308,25 @@
       <c r="B188" t="s">
         <v>93</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="2">
         <v>3.036</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="2">
         <v>45.420945379999999</v>
       </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188" t="s">
+      <c r="G188" s="2">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2">
+        <v>1</v>
+      </c>
+      <c r="I188" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J188" t="s">
@@ -15267,7 +15338,7 @@
       <c r="L188">
         <v>0</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -15284,25 +15355,25 @@
       <c r="B189" t="s">
         <v>93</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="2">
         <v>3.2639999999999998</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="2">
         <v>61.408012210000003</v>
       </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-      <c r="I189" t="s">
+      <c r="G189" s="2">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2">
+        <v>1</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J189" t="s">
@@ -15314,7 +15385,7 @@
       <c r="L189">
         <v>0</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -15331,25 +15402,25 @@
       <c r="B190" t="s">
         <v>93</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="2">
         <v>2.4279999999999999</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="2">
         <v>67.666316499999994</v>
       </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190" t="s">
+      <c r="G190" s="2">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1</v>
+      </c>
+      <c r="I190" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J190" t="s">
@@ -15361,7 +15432,7 @@
       <c r="L190">
         <v>0</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -15371,32 +15442,32 @@
       <c r="P190"/>
       <c r="Q190"/>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>93</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="2">
         <v>0.63400000000000001</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="2">
         <v>25.706503519999998</v>
       </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-      <c r="I191" t="s">
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J191" t="s">
@@ -15408,13 +15479,15 @@
       <c r="L191">
         <v>0</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N191" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O191"/>
+      <c r="O191" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P191"/>
       <c r="Q191"/>
     </row>
@@ -15425,25 +15498,25 @@
       <c r="B192" t="s">
         <v>93</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="2">
         <v>3.2850000000000001</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="2">
         <v>139.5950848</v>
       </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-      <c r="I192" t="s">
+      <c r="G192" s="2">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2">
+        <v>1</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J192" t="s">
@@ -15455,7 +15528,7 @@
       <c r="L192">
         <v>0</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -15465,32 +15538,32 @@
       <c r="P192"/>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>93</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="2">
         <v>5.2176</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="2">
         <v>103.1260091</v>
       </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193" t="s">
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J193" t="s">
@@ -15502,42 +15575,44 @@
       <c r="L193">
         <v>0</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N193" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O193"/>
+      <c r="O193" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P193"/>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>93</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="2">
         <v>4.327</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="2">
         <v>115.1915241</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="2">
         <v>0.45</v>
       </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194" t="s">
+      <c r="H194" s="2">
+        <v>1</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J194" t="s">
@@ -15549,13 +15624,15 @@
       <c r="L194">
         <v>0</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O194"/>
+      <c r="O194" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P194"/>
       <c r="Q194"/>
     </row>
@@ -15566,25 +15643,25 @@
       <c r="B195" t="s">
         <v>93</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="2">
         <v>2.4279999999999999</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="2">
         <v>65.549040759999997</v>
       </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195" t="s">
+      <c r="G195" s="2">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2">
+        <v>1</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J195" t="s">
@@ -15596,7 +15673,7 @@
       <c r="L195">
         <v>0</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -15606,32 +15683,32 @@
       <c r="P195"/>
       <c r="Q195"/>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>93</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="2">
         <v>4.5</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="2">
         <v>145.97701989999999</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H196">
-        <v>1</v>
-      </c>
-      <c r="I196" t="s">
+      <c r="H196" s="2">
+        <v>1</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J196" t="s">
@@ -15643,42 +15720,44 @@
       <c r="L196">
         <v>0</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N196" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O196"/>
+      <c r="O196" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P196"/>
       <c r="Q196"/>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>93</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="2">
         <v>7.51</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="2">
         <v>137.49720149999999</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="2">
         <v>0.53</v>
       </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197" t="s">
+      <c r="H197" s="2">
+        <v>1</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>427</v>
       </c>
       <c r="J197" t="s">
@@ -15690,42 +15769,44 @@
       <c r="L197">
         <v>0</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O197"/>
+      <c r="O197" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P197"/>
       <c r="Q197"/>
     </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>86</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="2">
         <v>6</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="2">
         <v>189.48</v>
       </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
         <v>0.33</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="2" t="s">
         <v>428</v>
       </c>
       <c r="J198" t="s">
@@ -15737,13 +15818,15 @@
       <c r="L198">
         <v>0</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198" s="2" t="s">
         <v>462</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="O198"/>
+      <c r="O198" s="20" t="s">
+        <v>509</v>
+      </c>
       <c r="P198"/>
       <c r="Q198"/>
     </row>
@@ -18003,7 +18086,7 @@
       <c r="P246"/>
       <c r="Q246"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -18019,13 +18102,13 @@
       <c r="E247" s="49">
         <v>33.848999999999997</v>
       </c>
-      <c r="F247" s="58">
+      <c r="F247" s="55">
         <v>867.33</v>
       </c>
-      <c r="G247" s="58">
+      <c r="G247" s="55">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H247" s="58">
+      <c r="H247" s="55">
         <v>1</v>
       </c>
       <c r="I247" s="49" t="s">
@@ -18050,7 +18133,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -18066,13 +18149,13 @@
       <c r="E248" s="49">
         <v>1.48</v>
       </c>
-      <c r="F248" s="58">
+      <c r="F248" s="55">
         <v>18.828721420000001</v>
       </c>
-      <c r="G248" s="58">
+      <c r="G248" s="55">
         <v>0.84</v>
       </c>
-      <c r="H248" s="58">
+      <c r="H248" s="55">
         <v>1</v>
       </c>
       <c r="I248" s="49" t="s">
@@ -18097,7 +18180,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -18113,13 +18196,13 @@
       <c r="E249" s="49">
         <v>1.4379999999999999</v>
       </c>
-      <c r="F249" s="58">
+      <c r="F249" s="55">
         <v>32.028825480000002</v>
       </c>
-      <c r="G249" s="58">
+      <c r="G249" s="55">
         <v>0.84</v>
       </c>
-      <c r="H249" s="58">
+      <c r="H249" s="55">
         <v>1</v>
       </c>
       <c r="I249" s="49" t="s">
@@ -18144,7 +18227,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -18160,13 +18243,13 @@
       <c r="E250" s="49">
         <v>1.56</v>
       </c>
-      <c r="F250" s="58">
+      <c r="F250" s="55">
         <v>41.048906299999999</v>
       </c>
-      <c r="G250" s="58">
+      <c r="G250" s="55">
         <v>0.84</v>
       </c>
-      <c r="H250" s="58">
+      <c r="H250" s="55">
         <v>1</v>
       </c>
       <c r="I250" s="49" t="s">
@@ -18191,7 +18274,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -18207,13 +18290,13 @@
       <c r="E251" s="49">
         <v>3.2</v>
       </c>
-      <c r="F251" s="58">
+      <c r="F251" s="55">
         <v>176.47453530000001</v>
       </c>
-      <c r="G251" s="58">
+      <c r="G251" s="55">
         <v>0.84</v>
       </c>
-      <c r="H251" s="58">
+      <c r="H251" s="55">
         <v>1</v>
       </c>
       <c r="I251" s="49" t="s">
@@ -18238,7 +18321,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -18254,13 +18337,13 @@
       <c r="E252" s="49">
         <v>1</v>
       </c>
-      <c r="F252" s="58">
+      <c r="F252" s="55">
         <v>45.09</v>
       </c>
-      <c r="G252" s="58">
+      <c r="G252" s="55">
         <v>0.54</v>
       </c>
-      <c r="H252" s="58">
+      <c r="H252" s="55">
         <v>1</v>
       </c>
       <c r="I252" s="49" t="s">
@@ -18285,7 +18368,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -18301,13 +18384,13 @@
       <c r="E253" s="49">
         <v>1</v>
       </c>
-      <c r="F253" s="58">
+      <c r="F253" s="55">
         <v>45.09</v>
       </c>
-      <c r="G253" s="58">
+      <c r="G253" s="55">
         <v>0.54</v>
       </c>
-      <c r="H253" s="58">
+      <c r="H253" s="55">
         <v>1</v>
       </c>
       <c r="I253" s="49" t="s">
@@ -18332,7 +18415,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -18348,13 +18431,13 @@
       <c r="E254" s="49">
         <v>1</v>
       </c>
-      <c r="F254" s="58">
+      <c r="F254" s="55">
         <v>45.09</v>
       </c>
-      <c r="G254" s="58">
+      <c r="G254" s="55">
         <v>0.54</v>
       </c>
-      <c r="H254" s="58">
+      <c r="H254" s="55">
         <v>1</v>
       </c>
       <c r="I254" s="49" t="s">
@@ -18379,7 +18462,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -18395,13 +18478,13 @@
       <c r="E255" s="49">
         <v>1</v>
       </c>
-      <c r="F255" s="58">
+      <c r="F255" s="55">
         <v>45.09</v>
       </c>
-      <c r="G255" s="58">
+      <c r="G255" s="55">
         <v>0.54</v>
       </c>
-      <c r="H255" s="58">
+      <c r="H255" s="55">
         <v>1</v>
       </c>
       <c r="I255" s="49" t="s">
@@ -18426,32 +18509,32 @@
         <v>510</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>102</v>
       </c>
-      <c r="C256" s="61" t="s">
+      <c r="C256" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="D256" s="61" t="s">
+      <c r="D256" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="E256" s="61">
-        <v>1</v>
-      </c>
-      <c r="F256" s="62">
+      <c r="E256" s="58">
+        <v>1</v>
+      </c>
+      <c r="F256" s="59">
         <v>45.09</v>
       </c>
-      <c r="G256" s="62">
+      <c r="G256" s="59">
         <v>0.54</v>
       </c>
-      <c r="H256" s="62">
-        <v>1</v>
-      </c>
-      <c r="I256" s="61" t="s">
+      <c r="H256" s="59">
+        <v>1</v>
+      </c>
+      <c r="I256" s="58" t="s">
         <v>438</v>
       </c>
       <c r="J256" t="s">
@@ -18463,17 +18546,17 @@
       <c r="L256">
         <v>0</v>
       </c>
-      <c r="M256" s="61" t="s">
+      <c r="M256" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="N256" s="61" t="s">
+      <c r="N256" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="O256" s="61" t="s">
+      <c r="O256" s="58" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -18523,7 +18606,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -18573,7 +18656,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -18621,7 +18704,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -18669,7 +18752,7 @@
       </c>
       <c r="P260" s="20"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -18719,7 +18802,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -18769,32 +18852,32 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>104</v>
       </c>
-      <c r="C263" s="57" t="s">
+      <c r="C263" s="54" t="s">
         <v>530</v>
       </c>
-      <c r="D263" s="57" t="s">
+      <c r="D263" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="E263" s="57">
-        <v>1</v>
-      </c>
-      <c r="F263" s="59">
+      <c r="E263" s="54">
+        <v>1</v>
+      </c>
+      <c r="F263" s="56">
         <v>182.28597360000001</v>
       </c>
-      <c r="G263" s="59">
+      <c r="G263" s="56">
         <v>0.8</v>
       </c>
-      <c r="H263" s="60">
+      <c r="H263" s="57">
         <v>0.67</v>
       </c>
-      <c r="I263" s="57" t="s">
+      <c r="I263" s="54" t="s">
         <v>440</v>
       </c>
       <c r="J263" t="s">
@@ -18806,45 +18889,45 @@
       <c r="L263">
         <v>0</v>
       </c>
-      <c r="M263" s="57" t="s">
+      <c r="M263" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="N263" s="57" t="s">
+      <c r="N263" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="O263" s="57" t="s">
+      <c r="O263" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="P263" s="57" t="s">
+      <c r="P263" s="54" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="264" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" s="56" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>104</v>
       </c>
-      <c r="C264" s="57" t="s">
+      <c r="C264" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="D264" s="57" t="s">
+      <c r="D264" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="E264" s="57">
-        <v>1</v>
-      </c>
-      <c r="F264" s="59">
+      <c r="E264" s="54">
+        <v>1</v>
+      </c>
+      <c r="F264" s="56">
         <v>182.28597360000001</v>
       </c>
-      <c r="G264" s="59">
+      <c r="G264" s="56">
         <v>0.8</v>
       </c>
-      <c r="H264" s="60">
+      <c r="H264" s="57">
         <v>0.67</v>
       </c>
-      <c r="I264" s="57" t="s">
+      <c r="I264" s="54" t="s">
         <v>440</v>
       </c>
       <c r="J264" t="s">
@@ -18856,21 +18939,21 @@
       <c r="L264">
         <v>0</v>
       </c>
-      <c r="M264" s="57" t="s">
+      <c r="M264" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="N264" s="57" t="s">
+      <c r="N264" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="O264" s="57" t="s">
+      <c r="O264" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="P264" s="57" t="s">
+      <c r="P264" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="Q264" s="57"/>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q264" s="54"/>
+    </row>
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -18915,7 +18998,7 @@
       </c>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -18960,7 +19043,7 @@
       </c>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -19005,32 +19088,32 @@
       </c>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>104</v>
       </c>
-      <c r="C268" s="57" t="s">
+      <c r="C268" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="D268" s="57" t="s">
+      <c r="D268" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="E268" s="57">
-        <v>1</v>
-      </c>
-      <c r="F268" s="59">
+      <c r="E268" s="54">
+        <v>1</v>
+      </c>
+      <c r="F268" s="56">
         <v>279.35073799999998</v>
       </c>
-      <c r="G268" s="59">
+      <c r="G268" s="56">
         <v>0.27</v>
       </c>
-      <c r="H268" s="59">
+      <c r="H268" s="56">
         <v>0.67</v>
       </c>
-      <c r="I268" s="57" t="s">
+      <c r="I268" s="54" t="s">
         <v>440</v>
       </c>
       <c r="J268" t="s">
@@ -19042,17 +19125,17 @@
       <c r="L268">
         <v>0</v>
       </c>
-      <c r="M268" s="57" t="s">
+      <c r="M268" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="N268" s="57" t="s">
+      <c r="N268" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="O268" s="57" t="s">
+      <c r="O268" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="P268" s="57"/>
-      <c r="Q268" s="57">
+      <c r="P268" s="54"/>
+      <c r="Q268" s="54">
         <v>0.25</v>
       </c>
     </row>
@@ -19103,7 +19186,7 @@
       <c r="P269"/>
       <c r="Q269"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -19154,7 +19237,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -19205,7 +19288,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -19256,7 +19339,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -19307,7 +19390,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -19358,7 +19441,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -20161,7 +20244,7 @@
       <c r="P291"/>
       <c r="Q291"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -20210,7 +20293,7 @@
       <c r="P292" s="7"/>
       <c r="Q292" s="7"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -20259,7 +20342,7 @@
       <c r="P293" s="7"/>
       <c r="Q293" s="7"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -20306,7 +20389,7 @@
       <c r="P294" s="7"/>
       <c r="Q294" s="7"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -20355,7 +20438,7 @@
       <c r="P295" s="7"/>
       <c r="Q295" s="7"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -20402,7 +20485,7 @@
       <c r="P296" s="7"/>
       <c r="Q296" s="7"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -20449,7 +20532,7 @@
       <c r="P297" s="7"/>
       <c r="Q297" s="7"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -20496,7 +20579,7 @@
       <c r="P298" s="7"/>
       <c r="Q298" s="7"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -20545,7 +20628,7 @@
       <c r="P299" s="7"/>
       <c r="Q299" s="7"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -20594,7 +20677,7 @@
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -20643,7 +20726,7 @@
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -20692,7 +20775,7 @@
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -20741,7 +20824,7 @@
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -20790,7 +20873,7 @@
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -20839,7 +20922,7 @@
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -20893,36 +20976,28 @@
     <filterColumn colId="6">
       <filters>
         <filter val="0"/>
-        <filter val="0.17"/>
-        <filter val="0.27"/>
+        <filter val="0.1"/>
+        <filter val="0.3"/>
         <filter val="0.4"/>
+        <filter val="0.45"/>
         <filter val="0.5"/>
-        <filter val="0.54"/>
-        <filter val="0.58"/>
-        <filter val="0.6"/>
+        <filter val="0.53"/>
+        <filter val="0.55"/>
+        <filter val="0.57"/>
+        <filter val="0.78"/>
         <filter val="0.8"/>
-        <filter val="0.84"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="KISH/PW-28/Lot-04"/>
-        <filter val="SUNM/PW-01"/>
-        <filter val="SUNM/PW-02"/>
-        <filter val="SUNM/PW-03"/>
-        <filter val="SUNM/PW-05"/>
-        <filter val="SUNM/PW-06"/>
-        <filter val="SUNM/PW-07"/>
+        <filter val="0.85"/>
+        <filter val="0.95"/>
       </filters>
     </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="SUNM"/>
+        <filter val="HOBI"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O2:P2 O3:O7 O12 O64:O85 O96:O97">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O2:P2 O3:O7 O12 O64:O85 O96:O97 O154 O156:O157 O163:O172 O175 O177:O187 O191 O193:O194 O196:O198">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O247:O268 O270:O275 O292:O306">
@@ -35342,20 +35417,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
